--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_12_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_12_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1158502.282978989</v>
+        <v>1154105.60559311</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7237024.734037974</v>
+        <v>7237024.734037973</v>
       </c>
     </row>
     <row r="11">
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>9.031127956876844</v>
+        <v>7.954617504417124</v>
       </c>
       <c r="F8" t="n">
         <v>9.031127956876844</v>
@@ -1150,7 +1150,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>7.954617504417124</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1217,22 +1217,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.954617504417124</v>
+      </c>
+      <c r="H9" t="n">
         <v>9.031127956876844</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="S9" t="n">
-        <v>9.031127956876844</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7.954617504417124</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>7.954617504417124</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>9.031127956876844</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>9.031127956876844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="U10" t="n">
-        <v>7.954617504417124</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>148.0643922194201</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -1384,10 +1384,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>100.5852915526485</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>302.472502131284</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.9745081870442</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>213.4136799352533</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>78.14563061803275</v>
       </c>
       <c r="I12" t="n">
-        <v>15.85061523732147</v>
+        <v>15.85061523732103</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>139.0818544057731</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.7669218318028</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.7702153818325</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>107.5672194692907</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>86.48461850898141</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>213.2852525725186</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>340.4099017467807</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>45.93990987883853</v>
       </c>
       <c r="H14" t="n">
-        <v>302.4725021312839</v>
+        <v>302.472502131284</v>
       </c>
       <c r="I14" t="n">
-        <v>67.80217289303906</v>
+        <v>67.80217289303907</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.9745081870442</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>213.4136799352533</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.7669218318028</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>146.7702153818325</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>107.5672194692907</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>135.8245529327415</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.9240611408965</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5405170298046</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>145.6106453509051</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>58.79905262567454</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>356.1036709003214</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>407.2374291605492</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.80217289303907</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>123.9745081870442</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>213.4136799352533</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.0517063660412</v>
@@ -1943,7 +1943,7 @@
         <v>78.14563061803275</v>
       </c>
       <c r="I18" t="n">
-        <v>15.85061523732074</v>
+        <v>15.85061523732075</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>146.7702153818325</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>186.7660869563366</v>
       </c>
       <c r="T19" t="n">
-        <v>229.9240611408965</v>
+        <v>77.65397594504498</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5405170298046</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>163.8582341229912</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>106.7173477677795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>209.1683796390883</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>123.9745081870442</v>
       </c>
       <c r="T20" t="n">
-        <v>213.4136799352533</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0517063660412</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2174,13 +2174,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>117.8995062843854</v>
+        <v>117.8995062843851</v>
       </c>
       <c r="H21" t="n">
         <v>78.14563061803275</v>
       </c>
       <c r="I21" t="n">
-        <v>15.85061523732074</v>
+        <v>15.85061523732075</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.7669218318028</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.7702153818325</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>107.5672194692907</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>56.21452991371795</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.9240611408965</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>1.883839511562423</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>117.2351126479483</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>407.2374291605492</v>
       </c>
       <c r="H23" t="n">
-        <v>302.4725021312839</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>123.9745081870442</v>
       </c>
       <c r="T23" t="n">
         <v>213.4136799352533</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.0517063660412</v>
       </c>
       <c r="V23" t="n">
-        <v>142.6645075449117</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -2417,7 +2417,7 @@
         <v>78.14563061803275</v>
       </c>
       <c r="I24" t="n">
-        <v>15.85061523732074</v>
+        <v>15.85061523732075</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.7669218318028</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>86.48461850898141</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>186.7660869563366</v>
+        <v>134.3704747587212</v>
       </c>
       <c r="T25" t="n">
         <v>229.9240611408965</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5405170298046</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -2544,7 +2544,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>83.45478803894652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,10 +2560,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>261.0411579612627</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>302.4725021312839</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>19.73866645683951</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2654,7 +2654,7 @@
         <v>78.14563061803275</v>
       </c>
       <c r="I27" t="n">
-        <v>15.85061523732074</v>
+        <v>15.85061523732075</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>86.48461850898141</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>186.7660869563366</v>
+        <v>135.8245529327415</v>
       </c>
       <c r="T28" t="n">
         <v>229.9240611408965</v>
@@ -2781,7 +2781,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>83.45478803894652</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>407.2374291605492</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>302.472502131284</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>67.80217289303907</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.4136799352533</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>257.0426088190864</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>110.9870415583637</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>78.14563061803275</v>
       </c>
       <c r="I30" t="n">
-        <v>15.85061523732074</v>
+        <v>15.85061523732075</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.7669218318028</v>
@@ -2970,7 +2970,7 @@
         <v>146.7702153818325</v>
       </c>
       <c r="I31" t="n">
-        <v>107.5672194692907</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>86.48461850898141</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>186.7660869563366</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>229.9240611408965</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>140.3722047940321</v>
       </c>
       <c r="X31" t="n">
-        <v>101.5646379977844</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -3031,16 +3031,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>213.4136799352533</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0517063660412</v>
       </c>
       <c r="V32" t="n">
-        <v>282.9958597619666</v>
+        <v>142.9631864404032</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>78.14563061803275</v>
       </c>
       <c r="I33" t="n">
-        <v>15.85061523732074</v>
+        <v>15.85061523732075</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>83.45478803894646</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>16.43742514756619</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>146.7702153818325</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>86.48461850898141</v>
       </c>
       <c r="S34" t="n">
-        <v>186.7660869563366</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>229.9240611408965</v>
@@ -3246,16 +3246,16 @@
         <v>282.5405170298046</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>407.2374291605492</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>302.4725021312839</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>67.80217289303906</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.01518005689675</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>213.4136799352533</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>303.9421342532455</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>78.14563061803275</v>
       </c>
       <c r="I36" t="n">
-        <v>15.85061523732074</v>
+        <v>15.85061523732075</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>135.8245529327415</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>146.7702153818325</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>107.5672194692907</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>102.3680586531411</v>
       </c>
       <c r="T37" t="n">
         <v>229.9240611408965</v>
@@ -3492,7 +3492,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,10 +3508,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>248.0415473429161</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>123.9745081870442</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>213.4136799352533</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0517063660412</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>99.06031878118023</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880557002</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
         <v>117.8995062843851</v>
@@ -3602,7 +3602,7 @@
         <v>78.14563061803275</v>
       </c>
       <c r="I39" t="n">
-        <v>15.85061523732074</v>
+        <v>15.85061523732075</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>32.4525827788146</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>186.7660869563366</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>229.9240611408965</v>
       </c>
       <c r="U40" t="n">
-        <v>278.1671056427178</v>
+        <v>282.5405170298046</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>93.11971615288859</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -3751,16 +3751,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>407.2374291605492</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>67.80217289303907</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.9745081870442</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>180.2393744498774</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>78.14563061803275</v>
       </c>
       <c r="I42" t="n">
-        <v>15.85061523732147</v>
+        <v>15.85061523732075</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>115.755113653575</v>
+        <v>115.7551136535759</v>
       </c>
       <c r="T42" t="n">
         <v>171.3456549381373</v>
@@ -3906,19 +3906,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.7669218318028</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>146.7702153818325</v>
       </c>
       <c r="I43" t="n">
-        <v>107.5672194692907</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>86.48461850898141</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>186.7660869563366</v>
       </c>
       <c r="T43" t="n">
-        <v>229.9240611408965</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5405170298046</v>
+        <v>108.4209705897849</v>
       </c>
       <c r="V43" t="n">
-        <v>260.0077928497324</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>407.2374291605492</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>302.472502131284</v>
       </c>
       <c r="I44" t="n">
-        <v>67.80217289303906</v>
+        <v>67.80217289303907</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>213.4136799352533</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.0517063660412</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>153.2525183722507</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>205.4761317570864</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965524</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
@@ -4076,7 +4076,7 @@
         <v>78.14563061803275</v>
       </c>
       <c r="I45" t="n">
-        <v>15.85061523732074</v>
+        <v>15.85061523732075</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>35.50372604626683</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.7669218318028</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>146.7702153818325</v>
       </c>
       <c r="I46" t="n">
         <v>107.5672194692907</v>
@@ -4188,19 +4188,19 @@
         <v>186.7660869563366</v>
       </c>
       <c r="T46" t="n">
-        <v>229.9240611408965</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5405170298046</v>
+        <v>70.55122648060446</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.12451182750738</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="C8" t="n">
-        <v>36.12451182750738</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="D8" t="n">
-        <v>36.12451182750738</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="E8" t="n">
-        <v>27.0021603559146</v>
+        <v>18.96719317973569</v>
       </c>
       <c r="F8" t="n">
-        <v>17.87980888432183</v>
+        <v>9.844841708142919</v>
       </c>
       <c r="G8" t="n">
-        <v>8.75745741272906</v>
+        <v>0.7224902365501475</v>
       </c>
       <c r="H8" t="n">
         <v>0.7224902365501475</v>
@@ -4807,16 +4807,16 @@
         <v>0.7224902365501475</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7224902365501475</v>
+        <v>9.663306913858223</v>
       </c>
       <c r="L8" t="n">
         <v>9.663306913858223</v>
       </c>
       <c r="M8" t="n">
-        <v>9.663306913858223</v>
+        <v>18.6041235911663</v>
       </c>
       <c r="N8" t="n">
-        <v>18.6041235911663</v>
+        <v>27.1836951501993</v>
       </c>
       <c r="O8" t="n">
         <v>27.1836951501993</v>
@@ -4828,28 +4828,28 @@
         <v>36.12451182750738</v>
       </c>
       <c r="R8" t="n">
-        <v>36.12451182750738</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="S8" t="n">
-        <v>36.12451182750738</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="T8" t="n">
-        <v>36.12451182750738</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="U8" t="n">
-        <v>36.12451182750738</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="V8" t="n">
-        <v>36.12451182750738</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="W8" t="n">
-        <v>36.12451182750738</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="X8" t="n">
-        <v>36.12451182750738</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="Y8" t="n">
-        <v>36.12451182750738</v>
+        <v>27.0021603559146</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>27.0021603559146</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27.0021603559146</v>
+      </c>
+      <c r="D9" t="n">
+        <v>27.0021603559146</v>
+      </c>
+      <c r="E9" t="n">
+        <v>27.0021603559146</v>
+      </c>
+      <c r="F9" t="n">
+        <v>27.0021603559146</v>
+      </c>
+      <c r="G9" t="n">
+        <v>18.96719317973569</v>
+      </c>
+      <c r="H9" t="n">
         <v>9.844841708142919</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9.844841708142919</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.7224902365501475</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.7224902365501475</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.7224902365501475</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.7224902365501475</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.7224902365501475</v>
       </c>
       <c r="I9" t="n">
         <v>0.7224902365501475</v>
       </c>
       <c r="J9" t="n">
-        <v>9.663306913858223</v>
+        <v>0.7224902365501475</v>
       </c>
       <c r="K9" t="n">
-        <v>9.663306913858223</v>
+        <v>0.7224902365501475</v>
       </c>
       <c r="L9" t="n">
-        <v>9.663306913858223</v>
+        <v>9.302061795583144</v>
       </c>
       <c r="M9" t="n">
         <v>18.24287847289122</v>
       </c>
       <c r="N9" t="n">
-        <v>18.24287847289122</v>
+        <v>27.1836951501993</v>
       </c>
       <c r="O9" t="n">
-        <v>18.24287847289122</v>
+        <v>27.1836951501993</v>
       </c>
       <c r="P9" t="n">
         <v>27.1836951501993</v>
@@ -4910,25 +4910,25 @@
         <v>27.0021603559146</v>
       </c>
       <c r="S9" t="n">
-        <v>17.87980888432183</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="T9" t="n">
-        <v>9.844841708142919</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="U9" t="n">
-        <v>9.844841708142919</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="V9" t="n">
-        <v>9.844841708142919</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="W9" t="n">
-        <v>9.844841708142919</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="X9" t="n">
-        <v>9.844841708142919</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.844841708142919</v>
+        <v>27.0021603559146</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7224902365501475</v>
+        <v>17.87980888432183</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7224902365501475</v>
+        <v>17.87980888432183</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7224902365501475</v>
+        <v>17.87980888432183</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7224902365501475</v>
+        <v>17.87980888432183</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7224902365501475</v>
+        <v>17.87980888432183</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7224902365501475</v>
+        <v>9.844841708142919</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7224902365501475</v>
+        <v>9.844841708142919</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7224902365501475</v>
+        <v>9.844841708142919</v>
       </c>
       <c r="J10" t="n">
         <v>0.7224902365501475</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7224902365501475</v>
+        <v>9.663306913858223</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7224902365501475</v>
+        <v>9.663306913858223</v>
       </c>
       <c r="M10" t="n">
         <v>9.663306913858223</v>
       </c>
       <c r="N10" t="n">
-        <v>18.6041235911663</v>
+        <v>14.82068210284027</v>
       </c>
       <c r="O10" t="n">
-        <v>27.54494026847438</v>
+        <v>23.76149878014834</v>
       </c>
       <c r="P10" t="n">
-        <v>36.12451182750738</v>
+        <v>32.70231545745642</v>
       </c>
       <c r="Q10" t="n">
         <v>36.12451182750738</v>
       </c>
       <c r="R10" t="n">
+        <v>36.12451182750738</v>
+      </c>
+      <c r="S10" t="n">
+        <v>36.12451182750738</v>
+      </c>
+      <c r="T10" t="n">
         <v>27.0021603559146</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>17.87980888432183</v>
       </c>
-      <c r="T10" t="n">
-        <v>8.75745741272906</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.7224902365501475</v>
-      </c>
       <c r="V10" t="n">
-        <v>0.7224902365501475</v>
+        <v>17.87980888432183</v>
       </c>
       <c r="W10" t="n">
-        <v>0.7224902365501475</v>
+        <v>17.87980888432183</v>
       </c>
       <c r="X10" t="n">
-        <v>0.7224902365501475</v>
+        <v>17.87980888432183</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7224902365501475</v>
+        <v>17.87980888432183</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1352.004736071623</v>
+        <v>1320.050074761075</v>
       </c>
       <c r="C11" t="n">
-        <v>1352.004736071623</v>
+        <v>1320.050074761075</v>
       </c>
       <c r="D11" t="n">
-        <v>966.5636072882912</v>
+        <v>1170.490082620246</v>
       </c>
       <c r="E11" t="n">
-        <v>563.9800824048357</v>
+        <v>767.9065577367908</v>
       </c>
       <c r="F11" t="n">
-        <v>147.0856439348134</v>
+        <v>351.0121192667685</v>
       </c>
       <c r="G11" t="n">
-        <v>45.48433933617857</v>
+        <v>351.0121192667685</v>
       </c>
       <c r="H11" t="n">
-        <v>45.48433933617857</v>
+        <v>45.48433933617856</v>
       </c>
       <c r="I11" t="n">
-        <v>45.48433933617857</v>
+        <v>45.48433933617856</v>
       </c>
       <c r="J11" t="n">
         <v>340.8496760276703</v>
       </c>
       <c r="K11" t="n">
-        <v>425.1054180109518</v>
+        <v>647.9832875594225</v>
       </c>
       <c r="L11" t="n">
-        <v>776.4961310996927</v>
+        <v>776.4961310996925</v>
       </c>
       <c r="M11" t="n">
-        <v>940.0765656508991</v>
+        <v>940.0765656508988</v>
       </c>
       <c r="N11" t="n">
         <v>1109.302878097464</v>
       </c>
       <c r="O11" t="n">
-        <v>1260.430566436658</v>
+        <v>1260.430566436657</v>
       </c>
       <c r="P11" t="n">
         <v>1823.299265721867</v>
@@ -5065,28 +5065,28 @@
         <v>2199.907123845821</v>
       </c>
       <c r="R11" t="n">
-        <v>2274.216966808929</v>
+        <v>2274.216966808928</v>
       </c>
       <c r="S11" t="n">
-        <v>2148.990190862419</v>
+        <v>2274.216966808928</v>
       </c>
       <c r="T11" t="n">
-        <v>2148.990190862419</v>
+        <v>2058.647593136955</v>
       </c>
       <c r="U11" t="n">
-        <v>2148.990190862419</v>
+        <v>2058.647593136955</v>
       </c>
       <c r="V11" t="n">
-        <v>2148.990190862419</v>
+        <v>1716.540783840474</v>
       </c>
       <c r="W11" t="n">
-        <v>2148.990190862419</v>
+        <v>1716.540783840474</v>
       </c>
       <c r="X11" t="n">
-        <v>2148.990190862419</v>
+        <v>1716.540783840474</v>
       </c>
       <c r="Y11" t="n">
-        <v>1752.49948178302</v>
+        <v>1320.050074761075</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>801.1419474330505</v>
+        <v>801.1419474330501</v>
       </c>
       <c r="C12" t="n">
-        <v>650.4877169931427</v>
+        <v>650.4877169931423</v>
       </c>
       <c r="D12" t="n">
-        <v>520.3987496146231</v>
+        <v>520.3987496146226</v>
       </c>
       <c r="E12" t="n">
-        <v>383.9522587255108</v>
+        <v>383.9522587255103</v>
       </c>
       <c r="F12" t="n">
-        <v>259.5204526086426</v>
+        <v>259.5204526086421</v>
       </c>
       <c r="G12" t="n">
-        <v>140.4300422203748</v>
+        <v>140.4300422203743</v>
       </c>
       <c r="H12" t="n">
-        <v>61.49506179811945</v>
+        <v>61.495061798119</v>
       </c>
       <c r="I12" t="n">
-        <v>45.48433933617857</v>
+        <v>45.48433933617856</v>
       </c>
       <c r="J12" t="n">
-        <v>53.62948386015626</v>
+        <v>248.3644788398836</v>
       </c>
       <c r="K12" t="n">
-        <v>526.7915813045937</v>
+        <v>721.526576284321</v>
       </c>
       <c r="L12" t="n">
-        <v>643.9279296178051</v>
+        <v>1284.395275569531</v>
       </c>
       <c r="M12" t="n">
-        <v>793.2024874466806</v>
+        <v>1490.915689507557</v>
       </c>
       <c r="N12" t="n">
-        <v>1117.276323796159</v>
+        <v>1653.506719897088</v>
       </c>
       <c r="O12" t="n">
-        <v>1680.145023081369</v>
+        <v>1787.802881088242</v>
       </c>
       <c r="P12" t="n">
-        <v>2243.013722366579</v>
+        <v>1883.020897144725</v>
       </c>
       <c r="Q12" t="n">
-        <v>2274.216966808929</v>
+        <v>2238.66750476632</v>
       </c>
       <c r="R12" t="n">
-        <v>2274.216966808929</v>
+        <v>2274.216966808928</v>
       </c>
       <c r="S12" t="n">
         <v>2157.292609583095</v>
       </c>
       <c r="T12" t="n">
-        <v>1984.216190453664</v>
+        <v>1984.216190453663</v>
       </c>
       <c r="U12" t="n">
-        <v>1774.216823944139</v>
+        <v>1774.216823944138</v>
       </c>
       <c r="V12" t="n">
         <v>1551.676822315206</v>
       </c>
       <c r="W12" t="n">
-        <v>1321.559576448493</v>
+        <v>1321.559576448492</v>
       </c>
       <c r="X12" t="n">
-        <v>1132.252498798505</v>
+        <v>1132.252498798504</v>
       </c>
       <c r="Y12" t="n">
-        <v>952.9382818740119</v>
+        <v>952.9382818740114</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.2036429192548</v>
+        <v>201.1174524336638</v>
       </c>
       <c r="C13" t="n">
-        <v>923.2036429192548</v>
+        <v>201.1174524336638</v>
       </c>
       <c r="D13" t="n">
-        <v>782.7169212972617</v>
+        <v>45.48433933617856</v>
       </c>
       <c r="E13" t="n">
-        <v>627.1581091564642</v>
+        <v>45.48433933617856</v>
       </c>
       <c r="F13" t="n">
-        <v>469.8321743694372</v>
+        <v>45.48433933617856</v>
       </c>
       <c r="G13" t="n">
-        <v>302.390839185798</v>
+        <v>45.48433933617856</v>
       </c>
       <c r="H13" t="n">
-        <v>154.1380963758662</v>
+        <v>45.48433933617856</v>
       </c>
       <c r="I13" t="n">
-        <v>45.48433933617857</v>
+        <v>45.48433933617856</v>
       </c>
       <c r="J13" t="n">
-        <v>72.02637168026276</v>
+        <v>72.02637168026274</v>
       </c>
       <c r="K13" t="n">
         <v>246.4055305416058</v>
@@ -5223,28 +5223,28 @@
         <v>1706.823976149644</v>
       </c>
       <c r="R13" t="n">
-        <v>1706.823976149644</v>
+        <v>1619.465775635521</v>
       </c>
       <c r="S13" t="n">
-        <v>1706.823976149644</v>
+        <v>1619.465775635521</v>
       </c>
       <c r="T13" t="n">
-        <v>1474.577449744698</v>
+        <v>1387.219249230575</v>
       </c>
       <c r="U13" t="n">
-        <v>1189.182988098431</v>
+        <v>1101.824787584308</v>
       </c>
       <c r="V13" t="n">
-        <v>923.2036429192548</v>
+        <v>835.8454424051321</v>
       </c>
       <c r="W13" t="n">
-        <v>923.2036429192548</v>
+        <v>620.405793341982</v>
       </c>
       <c r="X13" t="n">
-        <v>923.2036429192548</v>
+        <v>386.3254711249651</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.2036429192548</v>
+        <v>386.3254711249651</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1165.931073079335</v>
+        <v>1261.66213834616</v>
       </c>
       <c r="C14" t="n">
-        <v>822.082687476526</v>
+        <v>868.4866368490902</v>
       </c>
       <c r="D14" t="n">
-        <v>822.082687476526</v>
+        <v>868.4866368490902</v>
       </c>
       <c r="E14" t="n">
-        <v>419.4991625930705</v>
+        <v>465.9031119656348</v>
       </c>
       <c r="F14" t="n">
-        <v>419.4991625930705</v>
+        <v>465.9031119656348</v>
       </c>
       <c r="G14" t="n">
-        <v>419.4991625930705</v>
+        <v>419.4991625930706</v>
       </c>
       <c r="H14" t="n">
         <v>113.9713826624807</v>
@@ -5281,49 +5281,49 @@
         <v>340.8496760276703</v>
       </c>
       <c r="K14" t="n">
-        <v>425.1054180109518</v>
+        <v>903.7183753128801</v>
       </c>
       <c r="L14" t="n">
-        <v>913.4739515328275</v>
+        <v>1032.23121885315</v>
       </c>
       <c r="M14" t="n">
-        <v>1077.054386084034</v>
+        <v>1195.811653404356</v>
       </c>
       <c r="N14" t="n">
-        <v>1639.923085369244</v>
+        <v>1365.037965850922</v>
       </c>
       <c r="O14" t="n">
-        <v>1791.050773708437</v>
+        <v>1588.329838011815</v>
       </c>
       <c r="P14" t="n">
-        <v>1897.609108684975</v>
+        <v>2151.198537297025</v>
       </c>
       <c r="Q14" t="n">
-        <v>2274.216966808929</v>
+        <v>2199.907123845822</v>
       </c>
       <c r="R14" t="n">
         <v>2274.216966808929</v>
       </c>
       <c r="S14" t="n">
-        <v>2148.990190862419</v>
+        <v>2274.216966808929</v>
       </c>
       <c r="T14" t="n">
-        <v>1933.420817190446</v>
+        <v>2058.647593136955</v>
       </c>
       <c r="U14" t="n">
-        <v>1933.420817190446</v>
+        <v>2058.647593136955</v>
       </c>
       <c r="V14" t="n">
-        <v>1933.420817190446</v>
+        <v>2058.647593136955</v>
       </c>
       <c r="W14" t="n">
-        <v>1562.421782158734</v>
+        <v>2058.647593136955</v>
       </c>
       <c r="X14" t="n">
-        <v>1562.421782158734</v>
+        <v>2058.647593136955</v>
       </c>
       <c r="Y14" t="n">
-        <v>1165.931073079335</v>
+        <v>1662.156884057557</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>45.48433933617857</v>
       </c>
       <c r="J15" t="n">
-        <v>53.62948386015626</v>
+        <v>248.3644788398836</v>
       </c>
       <c r="K15" t="n">
-        <v>363.8310240852949</v>
+        <v>721.526576284321</v>
       </c>
       <c r="L15" t="n">
-        <v>480.9673723985064</v>
+        <v>1284.395275569531</v>
       </c>
       <c r="M15" t="n">
-        <v>630.2419302273819</v>
+        <v>1433.669833398406</v>
       </c>
       <c r="N15" t="n">
-        <v>792.8329606169137</v>
+        <v>1653.506719897089</v>
       </c>
       <c r="O15" t="n">
-        <v>1355.701659902124</v>
+        <v>1787.802881088242</v>
       </c>
       <c r="P15" t="n">
-        <v>1918.570359187333</v>
+        <v>1883.020897144725</v>
       </c>
       <c r="Q15" t="n">
-        <v>2274.216966808929</v>
+        <v>2238.66750476632</v>
       </c>
       <c r="R15" t="n">
         <v>2274.216966808929</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1108.555152328758</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="C16" t="n">
-        <v>938.3500343947469</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="D16" t="n">
-        <v>782.7169212972617</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="E16" t="n">
-        <v>627.1581091564642</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="F16" t="n">
-        <v>469.8321743694372</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="G16" t="n">
-        <v>302.390839185798</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="H16" t="n">
-        <v>154.1380963758662</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="I16" t="n">
         <v>45.48433933617857</v>
       </c>
       <c r="J16" t="n">
-        <v>72.02637168026276</v>
+        <v>72.02637168026274</v>
       </c>
       <c r="K16" t="n">
         <v>246.4055305416058</v>
@@ -5463,25 +5463,25 @@
         <v>1706.823976149644</v>
       </c>
       <c r="S16" t="n">
-        <v>1706.823976149644</v>
+        <v>1569.627458035764</v>
       </c>
       <c r="T16" t="n">
-        <v>1706.823976149644</v>
+        <v>1337.380931630817</v>
       </c>
       <c r="U16" t="n">
-        <v>1706.823976149644</v>
+        <v>1051.98646998455</v>
       </c>
       <c r="V16" t="n">
-        <v>1440.844630970468</v>
+        <v>786.0071248053746</v>
       </c>
       <c r="W16" t="n">
-        <v>1440.844630970468</v>
+        <v>502.6767227365522</v>
       </c>
       <c r="X16" t="n">
-        <v>1440.844630970468</v>
+        <v>268.5964005195352</v>
       </c>
       <c r="Y16" t="n">
-        <v>1293.763171020059</v>
+        <v>45.48433933617857</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1276.313241235666</v>
+        <v>1276.007627592928</v>
       </c>
       <c r="C17" t="n">
-        <v>1276.313241235666</v>
+        <v>916.3069499158352</v>
       </c>
       <c r="D17" t="n">
-        <v>1276.313241235666</v>
+        <v>530.8658211325029</v>
       </c>
       <c r="E17" t="n">
-        <v>873.7297163522101</v>
+        <v>530.8658211325029</v>
       </c>
       <c r="F17" t="n">
-        <v>456.8352778821879</v>
+        <v>113.9713826624807</v>
       </c>
       <c r="G17" t="n">
-        <v>45.48433933617857</v>
+        <v>113.9713826624807</v>
       </c>
       <c r="H17" t="n">
-        <v>45.48433933617857</v>
+        <v>113.9713826624807</v>
       </c>
       <c r="I17" t="n">
         <v>45.48433933617857</v>
@@ -5518,49 +5518,49 @@
         <v>340.8496760276703</v>
       </c>
       <c r="K17" t="n">
-        <v>903.7183753128801</v>
+        <v>647.9832875594232</v>
       </c>
       <c r="L17" t="n">
-        <v>1032.23121885315</v>
+        <v>776.4961310996932</v>
       </c>
       <c r="M17" t="n">
-        <v>1195.811653404357</v>
+        <v>940.0765656508995</v>
       </c>
       <c r="N17" t="n">
-        <v>1758.680352689566</v>
+        <v>1109.302878097465</v>
       </c>
       <c r="O17" t="n">
-        <v>2118.950045283594</v>
+        <v>1260.430566436658</v>
       </c>
       <c r="P17" t="n">
-        <v>2225.508380260132</v>
+        <v>1823.299265721868</v>
       </c>
       <c r="Q17" t="n">
-        <v>2274.216966808929</v>
+        <v>2199.907123845822</v>
       </c>
       <c r="R17" t="n">
         <v>2274.216966808929</v>
       </c>
       <c r="S17" t="n">
-        <v>2148.990190862419</v>
+        <v>2274.216966808929</v>
       </c>
       <c r="T17" t="n">
-        <v>1933.420817190446</v>
+        <v>2274.216966808929</v>
       </c>
       <c r="U17" t="n">
-        <v>1677.813032982324</v>
+        <v>2018.609182600806</v>
       </c>
       <c r="V17" t="n">
-        <v>1335.706223685842</v>
+        <v>1676.502373304324</v>
       </c>
       <c r="W17" t="n">
-        <v>1335.706223685842</v>
+        <v>1676.502373304324</v>
       </c>
       <c r="X17" t="n">
-        <v>1335.706223685842</v>
+        <v>1676.502373304324</v>
       </c>
       <c r="Y17" t="n">
-        <v>1335.706223685842</v>
+        <v>1676.502373304324</v>
       </c>
     </row>
     <row r="18">
@@ -5585,34 +5585,34 @@
         <v>259.5204526086422</v>
       </c>
       <c r="G18" t="n">
-        <v>140.430042220374</v>
+        <v>140.4300422203744</v>
       </c>
       <c r="H18" t="n">
-        <v>61.49506179811872</v>
+        <v>61.49506179811897</v>
       </c>
       <c r="I18" t="n">
         <v>45.48433933617857</v>
       </c>
       <c r="J18" t="n">
-        <v>53.62948386015626</v>
+        <v>248.3644788398836</v>
       </c>
       <c r="K18" t="n">
-        <v>118.3514692623672</v>
+        <v>721.526576284321</v>
       </c>
       <c r="L18" t="n">
-        <v>681.220168547577</v>
+        <v>1284.395275569531</v>
       </c>
       <c r="M18" t="n">
-        <v>1244.088867832787</v>
+        <v>1433.669833398406</v>
       </c>
       <c r="N18" t="n">
-        <v>1806.957567117997</v>
+        <v>1596.260863787938</v>
       </c>
       <c r="O18" t="n">
-        <v>2112.246244267488</v>
+        <v>1730.557024979092</v>
       </c>
       <c r="P18" t="n">
-        <v>2207.46426032397</v>
+        <v>1883.020897144725</v>
       </c>
       <c r="Q18" t="n">
         <v>2238.66750476632</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>349.3701952435957</v>
+        <v>514.0021993614885</v>
       </c>
       <c r="C19" t="n">
-        <v>349.3701952435957</v>
+        <v>514.0021993614885</v>
       </c>
       <c r="D19" t="n">
-        <v>193.7370821461104</v>
+        <v>358.3690862640032</v>
       </c>
       <c r="E19" t="n">
-        <v>193.7370821461104</v>
+        <v>202.8102741232056</v>
       </c>
       <c r="F19" t="n">
-        <v>193.7370821461104</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="G19" t="n">
-        <v>193.7370821461104</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="H19" t="n">
         <v>45.48433933617857</v>
@@ -5673,7 +5673,7 @@
         <v>45.48433933617857</v>
       </c>
       <c r="J19" t="n">
-        <v>72.02637168026276</v>
+        <v>72.02637168026274</v>
       </c>
       <c r="K19" t="n">
         <v>246.4055305416058</v>
@@ -5700,25 +5700,25 @@
         <v>1706.823976149644</v>
       </c>
       <c r="S19" t="n">
-        <v>1706.823976149644</v>
+        <v>1518.171363062435</v>
       </c>
       <c r="T19" t="n">
-        <v>1474.577449744698</v>
+        <v>1439.733003521986</v>
       </c>
       <c r="U19" t="n">
-        <v>1189.182988098431</v>
+        <v>1439.733003521986</v>
       </c>
       <c r="V19" t="n">
-        <v>923.2036429192548</v>
+        <v>1439.733003521986</v>
       </c>
       <c r="W19" t="n">
-        <v>923.2036429192548</v>
+        <v>1156.402601453163</v>
       </c>
       <c r="X19" t="n">
-        <v>757.6902751182536</v>
+        <v>922.3222792361464</v>
       </c>
       <c r="Y19" t="n">
-        <v>534.5782139348969</v>
+        <v>699.2102180527897</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>538.7207688950457</v>
+        <v>649.9410323878826</v>
       </c>
       <c r="C20" t="n">
-        <v>538.7207688950457</v>
+        <v>256.7655308908132</v>
       </c>
       <c r="D20" t="n">
-        <v>153.2796401117134</v>
+        <v>256.7655308908132</v>
       </c>
       <c r="E20" t="n">
-        <v>153.2796401117134</v>
+        <v>256.7655308908132</v>
       </c>
       <c r="F20" t="n">
-        <v>153.2796401117134</v>
+        <v>256.7655308908132</v>
       </c>
       <c r="G20" t="n">
-        <v>45.48433933617856</v>
+        <v>256.7655308908132</v>
       </c>
       <c r="H20" t="n">
         <v>45.48433933617856</v>
@@ -5752,28 +5752,28 @@
         <v>45.48433933617856</v>
       </c>
       <c r="J20" t="n">
-        <v>79.69686355591955</v>
+        <v>340.8496760276703</v>
       </c>
       <c r="K20" t="n">
-        <v>642.5655628411292</v>
+        <v>647.9832875594225</v>
       </c>
       <c r="L20" t="n">
-        <v>771.0784063813994</v>
+        <v>776.4961310996925</v>
       </c>
       <c r="M20" t="n">
-        <v>934.6588409326058</v>
+        <v>940.0765656508988</v>
       </c>
       <c r="N20" t="n">
-        <v>1497.527540217815</v>
+        <v>1109.302878097464</v>
       </c>
       <c r="O20" t="n">
-        <v>1648.655228557009</v>
+        <v>1260.430566436657</v>
       </c>
       <c r="P20" t="n">
-        <v>1897.609108684974</v>
+        <v>1823.299265721867</v>
       </c>
       <c r="Q20" t="n">
-        <v>2274.216966808928</v>
+        <v>2199.907123845821</v>
       </c>
       <c r="R20" t="n">
         <v>2274.216966808928</v>
@@ -5782,22 +5782,22 @@
         <v>2148.990190862419</v>
       </c>
       <c r="T20" t="n">
-        <v>1933.420817190446</v>
+        <v>2148.990190862419</v>
       </c>
       <c r="U20" t="n">
-        <v>1677.813032982323</v>
+        <v>2148.990190862419</v>
       </c>
       <c r="V20" t="n">
-        <v>1335.706223685841</v>
+        <v>1806.883381565937</v>
       </c>
       <c r="W20" t="n">
-        <v>1335.706223685841</v>
+        <v>1435.884346534225</v>
       </c>
       <c r="X20" t="n">
-        <v>1335.706223685841</v>
+        <v>1046.431741467281</v>
       </c>
       <c r="Y20" t="n">
-        <v>939.2155146064426</v>
+        <v>649.9410323878826</v>
       </c>
     </row>
     <row r="21">
@@ -5810,16 +5810,16 @@
         <v>801.1419474330501</v>
       </c>
       <c r="C21" t="n">
-        <v>650.4877169931423</v>
+        <v>650.4877169931422</v>
       </c>
       <c r="D21" t="n">
-        <v>520.3987496146226</v>
+        <v>520.3987496146224</v>
       </c>
       <c r="E21" t="n">
-        <v>383.9522587255103</v>
+        <v>383.9522587255101</v>
       </c>
       <c r="F21" t="n">
-        <v>259.5204526086421</v>
+        <v>259.5204526086418</v>
       </c>
       <c r="G21" t="n">
         <v>140.430042220374</v>
@@ -5831,25 +5831,25 @@
         <v>45.48433933617856</v>
       </c>
       <c r="J21" t="n">
-        <v>248.3644788398836</v>
+        <v>246.3997637625336</v>
       </c>
       <c r="K21" t="n">
-        <v>313.0864642420946</v>
+        <v>311.1217491647445</v>
       </c>
       <c r="L21" t="n">
-        <v>430.2228125553061</v>
+        <v>873.9904484499542</v>
       </c>
       <c r="M21" t="n">
-        <v>993.0915118405158</v>
+        <v>1023.26500627883</v>
       </c>
       <c r="N21" t="n">
-        <v>1555.960211125725</v>
+        <v>1185.856036668361</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.246244267487</v>
+        <v>1320.152197859515</v>
       </c>
       <c r="P21" t="n">
-        <v>2207.46426032397</v>
+        <v>1883.020897144725</v>
       </c>
       <c r="Q21" t="n">
         <v>2238.66750476632</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>681.4435345451275</v>
+        <v>781.02409960772</v>
       </c>
       <c r="C22" t="n">
-        <v>681.4435345451275</v>
+        <v>781.02409960772</v>
       </c>
       <c r="D22" t="n">
-        <v>525.8104214476423</v>
+        <v>625.3909865102347</v>
       </c>
       <c r="E22" t="n">
-        <v>370.2516093068448</v>
+        <v>469.8321743694372</v>
       </c>
       <c r="F22" t="n">
-        <v>212.9256745198177</v>
+        <v>469.8321743694372</v>
       </c>
       <c r="G22" t="n">
-        <v>45.48433933617856</v>
+        <v>302.3908391857981</v>
       </c>
       <c r="H22" t="n">
-        <v>45.48433933617856</v>
+        <v>154.1380963758662</v>
       </c>
       <c r="I22" t="n">
         <v>45.48433933617856</v>
@@ -5934,28 +5934,28 @@
         <v>1706.823976149644</v>
       </c>
       <c r="R22" t="n">
-        <v>1650.041622701444</v>
+        <v>1706.823976149644</v>
       </c>
       <c r="S22" t="n">
-        <v>1650.041622701444</v>
+        <v>1706.823976149644</v>
       </c>
       <c r="T22" t="n">
-        <v>1650.041622701444</v>
+        <v>1474.577449744698</v>
       </c>
       <c r="U22" t="n">
-        <v>1650.041622701444</v>
+        <v>1474.577449744698</v>
       </c>
       <c r="V22" t="n">
-        <v>1384.062277522268</v>
+        <v>1472.6745815512</v>
       </c>
       <c r="W22" t="n">
-        <v>1100.731875453446</v>
+        <v>1189.344179482378</v>
       </c>
       <c r="X22" t="n">
-        <v>866.6515532364288</v>
+        <v>1189.344179482378</v>
       </c>
       <c r="Y22" t="n">
-        <v>866.6515532364288</v>
+        <v>966.2321182990213</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>753.595644150224</v>
+        <v>575.2545835871862</v>
       </c>
       <c r="C23" t="n">
-        <v>753.595644150224</v>
+        <v>575.2545835871862</v>
       </c>
       <c r="D23" t="n">
-        <v>753.595644150224</v>
+        <v>575.2545835871862</v>
       </c>
       <c r="E23" t="n">
-        <v>351.0121192667684</v>
+        <v>575.2545835871862</v>
       </c>
       <c r="F23" t="n">
-        <v>351.0121192667684</v>
+        <v>456.8352778821879</v>
       </c>
       <c r="G23" t="n">
-        <v>351.0121192667684</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="H23" t="n">
-        <v>45.48433933617856</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="I23" t="n">
-        <v>45.48433933617856</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="J23" t="n">
-        <v>79.69686355591955</v>
+        <v>340.8496760276703</v>
       </c>
       <c r="K23" t="n">
-        <v>163.952605539201</v>
+        <v>903.7183753128801</v>
       </c>
       <c r="L23" t="n">
-        <v>439.8758438357168</v>
+        <v>1466.58707459809</v>
       </c>
       <c r="M23" t="n">
-        <v>1002.744543120926</v>
+        <v>1798.596044497835</v>
       </c>
       <c r="N23" t="n">
-        <v>1565.613242406136</v>
+        <v>1967.822356944401</v>
       </c>
       <c r="O23" t="n">
-        <v>1716.740930745329</v>
+        <v>2118.950045283594</v>
       </c>
       <c r="P23" t="n">
-        <v>1823.299265721867</v>
+        <v>2225.508380260132</v>
       </c>
       <c r="Q23" t="n">
-        <v>2199.907123845821</v>
+        <v>2274.216966808929</v>
       </c>
       <c r="R23" t="n">
-        <v>2274.216966808928</v>
+        <v>2274.216966808929</v>
       </c>
       <c r="S23" t="n">
-        <v>2274.216966808928</v>
+        <v>2148.990190862419</v>
       </c>
       <c r="T23" t="n">
-        <v>2058.647593136955</v>
+        <v>1933.420817190446</v>
       </c>
       <c r="U23" t="n">
-        <v>2058.647593136955</v>
+        <v>1677.813032982324</v>
       </c>
       <c r="V23" t="n">
-        <v>1914.542029960277</v>
+        <v>1335.706223685842</v>
       </c>
       <c r="W23" t="n">
-        <v>1543.542994928564</v>
+        <v>964.7071886541294</v>
       </c>
       <c r="X23" t="n">
-        <v>1154.090389861621</v>
+        <v>575.2545835871862</v>
       </c>
       <c r="Y23" t="n">
-        <v>1154.090389861621</v>
+        <v>575.2545835871862</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>801.1419474330498</v>
+        <v>801.1419474330505</v>
       </c>
       <c r="C24" t="n">
-        <v>650.487716993142</v>
+        <v>650.4877169931426</v>
       </c>
       <c r="D24" t="n">
-        <v>520.3987496146224</v>
+        <v>520.3987496146228</v>
       </c>
       <c r="E24" t="n">
-        <v>383.95225872551</v>
+        <v>383.9522587255105</v>
       </c>
       <c r="F24" t="n">
-        <v>259.5204526086418</v>
+        <v>259.5204526086422</v>
       </c>
       <c r="G24" t="n">
-        <v>140.430042220374</v>
+        <v>140.4300422203744</v>
       </c>
       <c r="H24" t="n">
-        <v>61.49506179811871</v>
+        <v>61.49506179811897</v>
       </c>
       <c r="I24" t="n">
-        <v>45.48433933617856</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="J24" t="n">
-        <v>53.62948386015626</v>
+        <v>248.3644788398836</v>
       </c>
       <c r="K24" t="n">
-        <v>118.3514692623672</v>
+        <v>721.526576284321</v>
       </c>
       <c r="L24" t="n">
-        <v>681.2201685475769</v>
+        <v>838.6629245975325</v>
       </c>
       <c r="M24" t="n">
-        <v>1097.892613456109</v>
+        <v>987.9374824264079</v>
       </c>
       <c r="N24" t="n">
-        <v>1260.483643845641</v>
+        <v>1150.52851281594</v>
       </c>
       <c r="O24" t="n">
-        <v>1823.35234313085</v>
+        <v>1320.152197859515</v>
       </c>
       <c r="P24" t="n">
-        <v>1918.570359187333</v>
+        <v>1883.020897144725</v>
       </c>
       <c r="Q24" t="n">
-        <v>2274.216966808928</v>
+        <v>2238.66750476632</v>
       </c>
       <c r="R24" t="n">
-        <v>2274.216966808928</v>
+        <v>2274.216966808929</v>
       </c>
       <c r="S24" t="n">
         <v>2157.292609583095</v>
       </c>
       <c r="T24" t="n">
-        <v>1984.216190453663</v>
+        <v>1984.216190453664</v>
       </c>
       <c r="U24" t="n">
-        <v>1774.216823944138</v>
+        <v>1774.216823944139</v>
       </c>
       <c r="V24" t="n">
-        <v>1551.676822315205</v>
+        <v>1551.676822315206</v>
       </c>
       <c r="W24" t="n">
-        <v>1321.559576448492</v>
+        <v>1321.559576448493</v>
       </c>
       <c r="X24" t="n">
-        <v>1132.252498798504</v>
+        <v>1132.252498798505</v>
       </c>
       <c r="Y24" t="n">
-        <v>952.9382818740112</v>
+        <v>952.9382818740119</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>612.8773299954629</v>
+        <v>370.2516093068448</v>
       </c>
       <c r="C25" t="n">
-        <v>612.8773299954629</v>
+        <v>370.2516093068448</v>
       </c>
       <c r="D25" t="n">
-        <v>612.8773299954629</v>
+        <v>370.2516093068448</v>
       </c>
       <c r="E25" t="n">
-        <v>612.8773299954629</v>
+        <v>370.2516093068448</v>
       </c>
       <c r="F25" t="n">
-        <v>612.8773299954629</v>
+        <v>212.9256745198177</v>
       </c>
       <c r="G25" t="n">
-        <v>612.8773299954629</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="H25" t="n">
-        <v>612.8773299954629</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="I25" t="n">
-        <v>612.8773299954629</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="J25" t="n">
-        <v>639.4193623395471</v>
+        <v>72.02637168026274</v>
       </c>
       <c r="K25" t="n">
-        <v>813.7985212008901</v>
+        <v>246.4055305416058</v>
       </c>
       <c r="L25" t="n">
-        <v>1096.350769971905</v>
+        <v>528.9577793126211</v>
       </c>
       <c r="M25" t="n">
-        <v>1407.504494036884</v>
+        <v>840.1115033775995</v>
       </c>
       <c r="N25" t="n">
-        <v>1712.587331050044</v>
+        <v>1145.19434039076</v>
       </c>
       <c r="O25" t="n">
-        <v>1987.880200032189</v>
+        <v>1420.487209372905</v>
       </c>
       <c r="P25" t="n">
-        <v>2204.094937214452</v>
+        <v>1636.701946555168</v>
       </c>
       <c r="Q25" t="n">
-        <v>2274.216966808928</v>
+        <v>1706.823976149644</v>
       </c>
       <c r="R25" t="n">
-        <v>2186.858766294806</v>
+        <v>1706.823976149644</v>
       </c>
       <c r="S25" t="n">
-        <v>1998.206153207597</v>
+        <v>1571.096223868107</v>
       </c>
       <c r="T25" t="n">
-        <v>1765.959626802651</v>
+        <v>1338.849697463161</v>
       </c>
       <c r="U25" t="n">
-        <v>1480.565165156384</v>
+        <v>1338.849697463161</v>
       </c>
       <c r="V25" t="n">
-        <v>1214.585819977208</v>
+        <v>1072.870352283985</v>
       </c>
       <c r="W25" t="n">
-        <v>931.2554179083854</v>
+        <v>789.539950215163</v>
       </c>
       <c r="X25" t="n">
-        <v>697.1750956913685</v>
+        <v>555.4596279981461</v>
       </c>
       <c r="Y25" t="n">
-        <v>612.8773299954629</v>
+        <v>555.4596279981461</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>764.1256676899384</v>
+        <v>1087.778906951189</v>
       </c>
       <c r="C26" t="n">
-        <v>370.9501661928689</v>
+        <v>694.6034054541196</v>
       </c>
       <c r="D26" t="n">
-        <v>370.9501661928689</v>
+        <v>309.1622766707874</v>
       </c>
       <c r="E26" t="n">
-        <v>370.9501661928689</v>
+        <v>45.48433933617856</v>
       </c>
       <c r="F26" t="n">
-        <v>370.9501661928689</v>
+        <v>45.48433933617856</v>
       </c>
       <c r="G26" t="n">
-        <v>370.9501661928689</v>
+        <v>45.48433933617856</v>
       </c>
       <c r="H26" t="n">
-        <v>65.42238626227908</v>
+        <v>45.48433933617856</v>
       </c>
       <c r="I26" t="n">
         <v>45.48433933617856</v>
@@ -6229,22 +6229,22 @@
         <v>340.8496760276703</v>
       </c>
       <c r="K26" t="n">
-        <v>425.1054180109518</v>
+        <v>425.1054180109517</v>
       </c>
       <c r="L26" t="n">
-        <v>833.5182306743611</v>
+        <v>987.9741172961615</v>
       </c>
       <c r="M26" t="n">
-        <v>1396.386929959571</v>
+        <v>1151.554551847368</v>
       </c>
       <c r="N26" t="n">
-        <v>1565.613242406136</v>
+        <v>1714.423251132577</v>
       </c>
       <c r="O26" t="n">
-        <v>1716.740930745329</v>
+        <v>1865.550939471771</v>
       </c>
       <c r="P26" t="n">
-        <v>1823.299265721867</v>
+        <v>1972.109274448308</v>
       </c>
       <c r="Q26" t="n">
         <v>2199.907123845821</v>
@@ -6262,16 +6262,16 @@
         <v>2274.216966808928</v>
       </c>
       <c r="V26" t="n">
-        <v>1932.110157512447</v>
+        <v>2274.216966808928</v>
       </c>
       <c r="W26" t="n">
-        <v>1561.111122480734</v>
+        <v>2274.216966808928</v>
       </c>
       <c r="X26" t="n">
-        <v>1561.111122480734</v>
+        <v>1884.764361741985</v>
       </c>
       <c r="Y26" t="n">
-        <v>1164.620413401335</v>
+        <v>1488.273652662586</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>801.1419474330496</v>
+        <v>801.1419474330501</v>
       </c>
       <c r="C27" t="n">
-        <v>650.4877169931417</v>
+        <v>650.4877169931422</v>
       </c>
       <c r="D27" t="n">
-        <v>520.3987496146221</v>
+        <v>520.3987496146224</v>
       </c>
       <c r="E27" t="n">
-        <v>383.9522587255099</v>
+        <v>383.9522587255101</v>
       </c>
       <c r="F27" t="n">
-        <v>259.5204526086416</v>
+        <v>259.5204526086418</v>
       </c>
       <c r="G27" t="n">
         <v>140.430042220374</v>
@@ -6305,25 +6305,25 @@
         <v>45.48433933617856</v>
       </c>
       <c r="J27" t="n">
-        <v>53.62948386015626</v>
+        <v>248.3644788398836</v>
       </c>
       <c r="K27" t="n">
-        <v>118.3514692623672</v>
+        <v>721.526576284321</v>
       </c>
       <c r="L27" t="n">
-        <v>235.4878175755787</v>
+        <v>1284.395275569531</v>
       </c>
       <c r="M27" t="n">
-        <v>798.3565168607884</v>
+        <v>1433.669833398406</v>
       </c>
       <c r="N27" t="n">
-        <v>1081.726861753551</v>
+        <v>1596.260863787938</v>
       </c>
       <c r="O27" t="n">
-        <v>1644.59556103876</v>
+        <v>1730.557024979091</v>
       </c>
       <c r="P27" t="n">
-        <v>2207.46426032397</v>
+        <v>1883.020897144725</v>
       </c>
       <c r="Q27" t="n">
         <v>2238.66750476632</v>
@@ -6341,7 +6341,7 @@
         <v>1774.216823944138</v>
       </c>
       <c r="V27" t="n">
-        <v>1551.676822315205</v>
+        <v>1551.676822315206</v>
       </c>
       <c r="W27" t="n">
         <v>1321.559576448492</v>
@@ -6350,7 +6350,7 @@
         <v>1132.252498798504</v>
       </c>
       <c r="Y27" t="n">
-        <v>952.938281874011</v>
+        <v>952.9382818740114</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>612.8773299954629</v>
+        <v>45.48433933617856</v>
       </c>
       <c r="C28" t="n">
-        <v>612.8773299954629</v>
+        <v>45.48433933617856</v>
       </c>
       <c r="D28" t="n">
-        <v>612.8773299954629</v>
+        <v>45.48433933617856</v>
       </c>
       <c r="E28" t="n">
-        <v>612.8773299954629</v>
+        <v>45.48433933617856</v>
       </c>
       <c r="F28" t="n">
-        <v>612.8773299954629</v>
+        <v>45.48433933617856</v>
       </c>
       <c r="G28" t="n">
-        <v>612.8773299954629</v>
+        <v>45.48433933617856</v>
       </c>
       <c r="H28" t="n">
-        <v>612.8773299954629</v>
+        <v>45.48433933617856</v>
       </c>
       <c r="I28" t="n">
-        <v>612.8773299954629</v>
+        <v>45.48433933617856</v>
       </c>
       <c r="J28" t="n">
-        <v>639.4193623395471</v>
+        <v>72.02637168026274</v>
       </c>
       <c r="K28" t="n">
-        <v>813.7985212008901</v>
+        <v>246.4055305416058</v>
       </c>
       <c r="L28" t="n">
-        <v>1096.350769971905</v>
+        <v>528.9577793126211</v>
       </c>
       <c r="M28" t="n">
-        <v>1407.504494036884</v>
+        <v>840.1115033775995</v>
       </c>
       <c r="N28" t="n">
-        <v>1712.587331050044</v>
+        <v>1145.19434039076</v>
       </c>
       <c r="O28" t="n">
-        <v>1987.880200032189</v>
+        <v>1420.487209372905</v>
       </c>
       <c r="P28" t="n">
-        <v>2204.094937214452</v>
+        <v>1636.701946555168</v>
       </c>
       <c r="Q28" t="n">
-        <v>2274.216966808928</v>
+        <v>1706.823976149644</v>
       </c>
       <c r="R28" t="n">
-        <v>2186.858766294806</v>
+        <v>1706.823976149644</v>
       </c>
       <c r="S28" t="n">
-        <v>1998.206153207597</v>
+        <v>1569.627458035764</v>
       </c>
       <c r="T28" t="n">
-        <v>1765.959626802651</v>
+        <v>1337.380931630817</v>
       </c>
       <c r="U28" t="n">
-        <v>1480.565165156384</v>
+        <v>1051.98646998455</v>
       </c>
       <c r="V28" t="n">
-        <v>1214.585819977208</v>
+        <v>786.0071248053746</v>
       </c>
       <c r="W28" t="n">
-        <v>931.2554179083854</v>
+        <v>502.6767227365522</v>
       </c>
       <c r="X28" t="n">
-        <v>697.1750956913685</v>
+        <v>268.5964005195352</v>
       </c>
       <c r="Y28" t="n">
-        <v>612.8773299954629</v>
+        <v>45.48433933617856</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1643.578932970058</v>
+        <v>1233.433626022535</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.403431472989</v>
+        <v>1233.433626022535</v>
       </c>
       <c r="D29" t="n">
-        <v>864.9623026896563</v>
+        <v>1233.433626022535</v>
       </c>
       <c r="E29" t="n">
-        <v>462.3787778062008</v>
+        <v>830.8501011390799</v>
       </c>
       <c r="F29" t="n">
-        <v>45.48433933617857</v>
+        <v>830.8501011390799</v>
       </c>
       <c r="G29" t="n">
-        <v>45.48433933617857</v>
+        <v>419.4991625930706</v>
       </c>
       <c r="H29" t="n">
-        <v>45.48433933617857</v>
+        <v>113.9713826624807</v>
       </c>
       <c r="I29" t="n">
         <v>45.48433933617857</v>
       </c>
       <c r="J29" t="n">
-        <v>108.1979279303695</v>
+        <v>340.8496760276703</v>
       </c>
       <c r="K29" t="n">
-        <v>192.453669913651</v>
+        <v>903.7183753128801</v>
       </c>
       <c r="L29" t="n">
-        <v>755.3223691988608</v>
+        <v>1466.58707459809</v>
       </c>
       <c r="M29" t="n">
-        <v>918.9028037500672</v>
+        <v>1630.167509149296</v>
       </c>
       <c r="N29" t="n">
-        <v>1481.771503035277</v>
+        <v>1967.822356944401</v>
       </c>
       <c r="O29" t="n">
-        <v>2044.640202320487</v>
+        <v>2118.950045283594</v>
       </c>
       <c r="P29" t="n">
-        <v>2151.198537297024</v>
+        <v>2225.508380260132</v>
       </c>
       <c r="Q29" t="n">
-        <v>2199.907123845821</v>
+        <v>2274.216966808929</v>
       </c>
       <c r="R29" t="n">
         <v>2274.216966808929</v>
@@ -6493,22 +6493,22 @@
         <v>2274.216966808929</v>
       </c>
       <c r="T29" t="n">
-        <v>2274.216966808929</v>
+        <v>2058.647593136955</v>
       </c>
       <c r="U29" t="n">
-        <v>2274.216966808929</v>
+        <v>2058.647593136955</v>
       </c>
       <c r="V29" t="n">
-        <v>2014.577968001771</v>
+        <v>1716.540783840474</v>
       </c>
       <c r="W29" t="n">
-        <v>1643.578932970058</v>
+        <v>1345.541748808761</v>
       </c>
       <c r="X29" t="n">
-        <v>1643.578932970058</v>
+        <v>1233.433626022535</v>
       </c>
       <c r="Y29" t="n">
-        <v>1643.578932970058</v>
+        <v>1233.433626022535</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>801.1419474330505</v>
+        <v>801.1419474330501</v>
       </c>
       <c r="C30" t="n">
-        <v>650.4877169931426</v>
+        <v>650.4877169931422</v>
       </c>
       <c r="D30" t="n">
-        <v>520.3987496146228</v>
+        <v>520.3987496146226</v>
       </c>
       <c r="E30" t="n">
-        <v>383.9522587255105</v>
+        <v>383.9522587255103</v>
       </c>
       <c r="F30" t="n">
-        <v>259.5204526086422</v>
+        <v>259.520452608642</v>
       </c>
       <c r="G30" t="n">
-        <v>140.4300422203744</v>
+        <v>140.4300422203742</v>
       </c>
       <c r="H30" t="n">
-        <v>61.49506179811897</v>
+        <v>61.49506179811873</v>
       </c>
       <c r="I30" t="n">
         <v>45.48433933617857</v>
@@ -6545,25 +6545,25 @@
         <v>248.3644788398836</v>
       </c>
       <c r="K30" t="n">
-        <v>313.0864642420946</v>
+        <v>721.526576284321</v>
       </c>
       <c r="L30" t="n">
-        <v>430.2228125553061</v>
+        <v>838.6629245975325</v>
       </c>
       <c r="M30" t="n">
-        <v>993.091511840516</v>
+        <v>987.9374824264079</v>
       </c>
       <c r="N30" t="n">
-        <v>1260.483643845641</v>
+        <v>1150.52851281594</v>
       </c>
       <c r="O30" t="n">
-        <v>1823.352343130851</v>
+        <v>1320.152197859515</v>
       </c>
       <c r="P30" t="n">
-        <v>1918.570359187333</v>
+        <v>1883.020897144725</v>
       </c>
       <c r="Q30" t="n">
-        <v>2274.216966808929</v>
+        <v>2238.66750476632</v>
       </c>
       <c r="R30" t="n">
         <v>2274.216966808929</v>
@@ -6581,13 +6581,13 @@
         <v>1551.676822315206</v>
       </c>
       <c r="W30" t="n">
-        <v>1321.559576448493</v>
+        <v>1321.559576448492</v>
       </c>
       <c r="X30" t="n">
-        <v>1132.252498798505</v>
+        <v>1132.252498798504</v>
       </c>
       <c r="Y30" t="n">
-        <v>952.9382818740119</v>
+        <v>952.9382818740114</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1108.555152328758</v>
+        <v>686.9423474045579</v>
       </c>
       <c r="C31" t="n">
-        <v>938.3500343947469</v>
+        <v>516.7372294705472</v>
       </c>
       <c r="D31" t="n">
-        <v>782.7169212972617</v>
+        <v>516.7372294705472</v>
       </c>
       <c r="E31" t="n">
-        <v>627.1581091564642</v>
+        <v>361.1784173297496</v>
       </c>
       <c r="F31" t="n">
-        <v>469.8321743694372</v>
+        <v>361.1784173297496</v>
       </c>
       <c r="G31" t="n">
-        <v>302.390839185798</v>
+        <v>193.7370821461105</v>
       </c>
       <c r="H31" t="n">
-        <v>154.1380963758662</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="I31" t="n">
         <v>45.48433933617857</v>
       </c>
       <c r="J31" t="n">
-        <v>72.02637168026276</v>
+        <v>72.02637168026274</v>
       </c>
       <c r="K31" t="n">
         <v>246.4055305416058</v>
@@ -6645,28 +6645,28 @@
         <v>1706.823976149644</v>
       </c>
       <c r="R31" t="n">
-        <v>1619.465775635521</v>
+        <v>1706.823976149644</v>
       </c>
       <c r="S31" t="n">
-        <v>1619.465775635521</v>
+        <v>1518.171363062435</v>
       </c>
       <c r="T31" t="n">
-        <v>1619.465775635521</v>
+        <v>1285.924836657489</v>
       </c>
       <c r="U31" t="n">
-        <v>1619.465775635521</v>
+        <v>1285.924836657489</v>
       </c>
       <c r="V31" t="n">
-        <v>1619.465775635521</v>
+        <v>1285.924836657489</v>
       </c>
       <c r="W31" t="n">
-        <v>1619.465775635521</v>
+        <v>1144.134730804931</v>
       </c>
       <c r="X31" t="n">
-        <v>1516.875232203416</v>
+        <v>910.0544085879146</v>
       </c>
       <c r="Y31" t="n">
-        <v>1293.763171020059</v>
+        <v>686.9423474045579</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>430.9254681195108</v>
+        <v>1258.137804186726</v>
       </c>
       <c r="C32" t="n">
-        <v>430.9254681195108</v>
+        <v>864.9623026896563</v>
       </c>
       <c r="D32" t="n">
-        <v>45.48433933617857</v>
+        <v>864.9623026896563</v>
       </c>
       <c r="E32" t="n">
-        <v>45.48433933617857</v>
+        <v>462.3787778062008</v>
       </c>
       <c r="F32" t="n">
         <v>45.48433933617857</v>
@@ -6703,25 +6703,25 @@
         <v>340.8496760276703</v>
       </c>
       <c r="K32" t="n">
-        <v>425.1054180109518</v>
+        <v>722.29313052253</v>
       </c>
       <c r="L32" t="n">
-        <v>553.6182615512218</v>
+        <v>850.8059740628</v>
       </c>
       <c r="M32" t="n">
-        <v>1116.486960836432</v>
+        <v>1014.386408614006</v>
       </c>
       <c r="N32" t="n">
-        <v>1679.355660121641</v>
+        <v>1183.612721060572</v>
       </c>
       <c r="O32" t="n">
-        <v>2044.640202320487</v>
+        <v>1334.740409399765</v>
       </c>
       <c r="P32" t="n">
-        <v>2151.198537297024</v>
+        <v>1897.609108684975</v>
       </c>
       <c r="Q32" t="n">
-        <v>2199.907123845821</v>
+        <v>2274.216966808929</v>
       </c>
       <c r="R32" t="n">
         <v>2274.216966808929</v>
@@ -6730,22 +6730,22 @@
         <v>2274.216966808929</v>
       </c>
       <c r="T32" t="n">
-        <v>2274.216966808929</v>
+        <v>2058.647593136955</v>
       </c>
       <c r="U32" t="n">
-        <v>2274.216966808929</v>
+        <v>1803.039808928833</v>
       </c>
       <c r="V32" t="n">
-        <v>1988.362563008962</v>
+        <v>1658.632549898123</v>
       </c>
       <c r="W32" t="n">
-        <v>1617.36352797725</v>
+        <v>1658.632549898123</v>
       </c>
       <c r="X32" t="n">
-        <v>1227.910922910306</v>
+        <v>1658.632549898123</v>
       </c>
       <c r="Y32" t="n">
-        <v>831.4202138309076</v>
+        <v>1658.632549898123</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>801.1419474330505</v>
+        <v>801.1419474330501</v>
       </c>
       <c r="C33" t="n">
-        <v>650.4877169931426</v>
+        <v>650.4877169931422</v>
       </c>
       <c r="D33" t="n">
-        <v>520.3987496146228</v>
+        <v>520.3987496146226</v>
       </c>
       <c r="E33" t="n">
-        <v>383.9522587255105</v>
+        <v>383.9522587255103</v>
       </c>
       <c r="F33" t="n">
-        <v>259.5204526086422</v>
+        <v>259.520452608642</v>
       </c>
       <c r="G33" t="n">
-        <v>140.4300422203744</v>
+        <v>140.4300422203742</v>
       </c>
       <c r="H33" t="n">
-        <v>61.49506179811897</v>
+        <v>61.49506179811873</v>
       </c>
       <c r="I33" t="n">
         <v>45.48433933617857</v>
       </c>
       <c r="J33" t="n">
-        <v>53.62948386015626</v>
+        <v>248.3644788398836</v>
       </c>
       <c r="K33" t="n">
-        <v>118.3514692623672</v>
+        <v>350.1998942994155</v>
       </c>
       <c r="L33" t="n">
-        <v>681.220168547577</v>
+        <v>913.0685935846253</v>
       </c>
       <c r="M33" t="n">
-        <v>830.4947263764525</v>
+        <v>1062.343151413501</v>
       </c>
       <c r="N33" t="n">
-        <v>1393.363425661662</v>
+        <v>1224.934181803033</v>
       </c>
       <c r="O33" t="n">
-        <v>1956.232124946872</v>
+        <v>1787.802881088242</v>
       </c>
       <c r="P33" t="n">
-        <v>2051.450141003355</v>
+        <v>1883.020897144725</v>
       </c>
       <c r="Q33" t="n">
-        <v>2274.216966808929</v>
+        <v>2238.66750476632</v>
       </c>
       <c r="R33" t="n">
         <v>2274.216966808929</v>
@@ -6818,13 +6818,13 @@
         <v>1551.676822315206</v>
       </c>
       <c r="W33" t="n">
-        <v>1321.559576448493</v>
+        <v>1321.559576448492</v>
       </c>
       <c r="X33" t="n">
-        <v>1132.252498798505</v>
+        <v>1132.252498798504</v>
       </c>
       <c r="Y33" t="n">
-        <v>952.9382818740119</v>
+        <v>952.9382818740114</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>129.7821050320841</v>
+        <v>693.5047077096499</v>
       </c>
       <c r="C34" t="n">
-        <v>45.48433933617857</v>
+        <v>523.2995897756391</v>
       </c>
       <c r="D34" t="n">
-        <v>45.48433933617857</v>
+        <v>367.6664766781539</v>
       </c>
       <c r="E34" t="n">
-        <v>45.48433933617857</v>
+        <v>367.6664766781539</v>
       </c>
       <c r="F34" t="n">
-        <v>45.48433933617857</v>
+        <v>210.3405418911268</v>
       </c>
       <c r="G34" t="n">
-        <v>45.48433933617857</v>
+        <v>193.7370821461105</v>
       </c>
       <c r="H34" t="n">
         <v>45.48433933617857</v>
@@ -6858,7 +6858,7 @@
         <v>45.48433933617857</v>
       </c>
       <c r="J34" t="n">
-        <v>72.02637168026276</v>
+        <v>72.02637168026274</v>
       </c>
       <c r="K34" t="n">
         <v>246.4055305416058</v>
@@ -6885,25 +6885,25 @@
         <v>1619.465775635521</v>
       </c>
       <c r="S34" t="n">
-        <v>1430.813162548312</v>
+        <v>1619.465775635521</v>
       </c>
       <c r="T34" t="n">
-        <v>1198.566636143366</v>
+        <v>1387.219249230575</v>
       </c>
       <c r="U34" t="n">
-        <v>913.1721744970991</v>
+        <v>1101.824787584308</v>
       </c>
       <c r="V34" t="n">
-        <v>647.1928293179234</v>
+        <v>1101.824787584308</v>
       </c>
       <c r="W34" t="n">
-        <v>363.862427249101</v>
+        <v>1101.824787584308</v>
       </c>
       <c r="X34" t="n">
-        <v>129.7821050320841</v>
+        <v>1101.824787584308</v>
       </c>
       <c r="Y34" t="n">
-        <v>129.7821050320841</v>
+        <v>878.7127264009512</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1247.744539609102</v>
+        <v>438.659840833248</v>
       </c>
       <c r="C35" t="n">
-        <v>1247.744539609102</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="D35" t="n">
-        <v>1247.744539609102</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="E35" t="n">
-        <v>1247.744539609102</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="F35" t="n">
-        <v>830.8501011390799</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="G35" t="n">
-        <v>419.4991625930705</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="H35" t="n">
-        <v>113.9713826624807</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="I35" t="n">
         <v>45.48433933617857</v>
@@ -6940,49 +6940,49 @@
         <v>340.8496760276703</v>
       </c>
       <c r="K35" t="n">
-        <v>425.1054180109518</v>
+        <v>647.9832875594232</v>
       </c>
       <c r="L35" t="n">
-        <v>776.4961310996927</v>
+        <v>776.4961310996932</v>
       </c>
       <c r="M35" t="n">
-        <v>940.0765656508991</v>
+        <v>940.0765656508995</v>
       </c>
       <c r="N35" t="n">
-        <v>1109.302878097464</v>
+        <v>1109.302878097465</v>
       </c>
       <c r="O35" t="n">
         <v>1260.430566436658</v>
       </c>
       <c r="P35" t="n">
-        <v>1823.299265721867</v>
+        <v>1823.299265721868</v>
       </c>
       <c r="Q35" t="n">
-        <v>2199.907123845821</v>
+        <v>2199.907123845822</v>
       </c>
       <c r="R35" t="n">
         <v>2274.216966808929</v>
       </c>
       <c r="S35" t="n">
-        <v>2234.807694024184</v>
+        <v>2274.216966808929</v>
       </c>
       <c r="T35" t="n">
-        <v>2019.238320352212</v>
+        <v>2274.216966808929</v>
       </c>
       <c r="U35" t="n">
-        <v>2019.238320352212</v>
+        <v>2274.216966808929</v>
       </c>
       <c r="V35" t="n">
-        <v>2019.238320352212</v>
+        <v>1932.110157512447</v>
       </c>
       <c r="W35" t="n">
-        <v>1648.239285320499</v>
+        <v>1625.097900690987</v>
       </c>
       <c r="X35" t="n">
-        <v>1648.239285320499</v>
+        <v>1235.645295624044</v>
       </c>
       <c r="Y35" t="n">
-        <v>1648.239285320499</v>
+        <v>839.1545865446449</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>45.48433933617857</v>
       </c>
       <c r="J36" t="n">
-        <v>53.62948386015626</v>
+        <v>248.3644788398836</v>
       </c>
       <c r="K36" t="n">
-        <v>118.3514692623672</v>
+        <v>721.526576284321</v>
       </c>
       <c r="L36" t="n">
-        <v>681.220168547577</v>
+        <v>1284.395275569531</v>
       </c>
       <c r="M36" t="n">
-        <v>1244.088867832787</v>
+        <v>1433.669833398406</v>
       </c>
       <c r="N36" t="n">
-        <v>1406.679898222319</v>
+        <v>1596.260863787938</v>
       </c>
       <c r="O36" t="n">
-        <v>1540.976059413472</v>
+        <v>1730.557024979092</v>
       </c>
       <c r="P36" t="n">
-        <v>2103.844758698682</v>
+        <v>2207.46426032397</v>
       </c>
       <c r="Q36" t="n">
         <v>2238.66750476632</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>612.8773299954634</v>
+        <v>302.3908391857981</v>
       </c>
       <c r="C37" t="n">
-        <v>612.8773299954634</v>
+        <v>302.3908391857981</v>
       </c>
       <c r="D37" t="n">
-        <v>612.8773299954634</v>
+        <v>302.3908391857981</v>
       </c>
       <c r="E37" t="n">
-        <v>612.8773299954634</v>
+        <v>302.3908391857981</v>
       </c>
       <c r="F37" t="n">
-        <v>612.8773299954634</v>
+        <v>302.3908391857981</v>
       </c>
       <c r="G37" t="n">
-        <v>612.8773299954634</v>
+        <v>302.3908391857981</v>
       </c>
       <c r="H37" t="n">
-        <v>612.8773299954634</v>
+        <v>154.1380963758662</v>
       </c>
       <c r="I37" t="n">
-        <v>612.8773299954634</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="J37" t="n">
-        <v>639.4193623395475</v>
+        <v>72.02637168026274</v>
       </c>
       <c r="K37" t="n">
-        <v>813.7985212008906</v>
+        <v>246.4055305416058</v>
       </c>
       <c r="L37" t="n">
-        <v>1096.350769971906</v>
+        <v>528.9577793126211</v>
       </c>
       <c r="M37" t="n">
-        <v>1407.504494036884</v>
+        <v>840.1115033775995</v>
       </c>
       <c r="N37" t="n">
-        <v>1712.587331050045</v>
+        <v>1145.19434039076</v>
       </c>
       <c r="O37" t="n">
-        <v>1987.88020003219</v>
+        <v>1420.487209372905</v>
       </c>
       <c r="P37" t="n">
-        <v>2204.094937214452</v>
+        <v>1636.701946555168</v>
       </c>
       <c r="Q37" t="n">
-        <v>2274.216966808929</v>
+        <v>1706.823976149644</v>
       </c>
       <c r="R37" t="n">
-        <v>2274.216966808929</v>
+        <v>1706.823976149644</v>
       </c>
       <c r="S37" t="n">
-        <v>2274.216966808929</v>
+        <v>1603.421896702027</v>
       </c>
       <c r="T37" t="n">
-        <v>2041.970440403983</v>
+        <v>1371.17537029708</v>
       </c>
       <c r="U37" t="n">
-        <v>1756.575978757715</v>
+        <v>1085.780908650813</v>
       </c>
       <c r="V37" t="n">
-        <v>1490.59663357854</v>
+        <v>819.8015634716373</v>
       </c>
       <c r="W37" t="n">
-        <v>1207.266231509717</v>
+        <v>536.471161402815</v>
       </c>
       <c r="X37" t="n">
-        <v>973.1859092927003</v>
+        <v>302.3908391857981</v>
       </c>
       <c r="Y37" t="n">
-        <v>750.0738481093437</v>
+        <v>302.3908391857981</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>438.659840833248</v>
+        <v>1477.231512018133</v>
       </c>
       <c r="C38" t="n">
-        <v>45.48433933617857</v>
+        <v>1084.056010521063</v>
       </c>
       <c r="D38" t="n">
-        <v>45.48433933617857</v>
+        <v>698.6148817377311</v>
       </c>
       <c r="E38" t="n">
-        <v>45.48433933617857</v>
+        <v>296.0313568542757</v>
       </c>
       <c r="F38" t="n">
-        <v>45.48433933617857</v>
+        <v>296.0313568542757</v>
       </c>
       <c r="G38" t="n">
-        <v>45.48433933617857</v>
+        <v>296.0313568542757</v>
       </c>
       <c r="H38" t="n">
         <v>45.48433933617857</v>
@@ -7174,52 +7174,52 @@
         <v>45.48433933617857</v>
       </c>
       <c r="J38" t="n">
-        <v>79.69686355591955</v>
+        <v>340.8496760276703</v>
       </c>
       <c r="K38" t="n">
-        <v>642.5655628411293</v>
+        <v>425.1054180109517</v>
       </c>
       <c r="L38" t="n">
-        <v>1104.39540267485</v>
+        <v>553.6182615512218</v>
       </c>
       <c r="M38" t="n">
-        <v>1267.975837226056</v>
+        <v>717.1986961024281</v>
       </c>
       <c r="N38" t="n">
-        <v>1437.202149672621</v>
+        <v>886.4250085489934</v>
       </c>
       <c r="O38" t="n">
-        <v>1588.329838011814</v>
+        <v>1260.430566436658</v>
       </c>
       <c r="P38" t="n">
-        <v>2151.198537297024</v>
+        <v>1823.299265721868</v>
       </c>
       <c r="Q38" t="n">
-        <v>2199.907123845821</v>
+        <v>2199.907123845822</v>
       </c>
       <c r="R38" t="n">
         <v>2274.216966808929</v>
       </c>
       <c r="S38" t="n">
-        <v>2148.990190862419</v>
+        <v>2274.216966808929</v>
       </c>
       <c r="T38" t="n">
-        <v>1933.420817190446</v>
+        <v>2274.216966808929</v>
       </c>
       <c r="U38" t="n">
-        <v>1677.813032982324</v>
+        <v>2274.216966808929</v>
       </c>
       <c r="V38" t="n">
-        <v>1335.706223685842</v>
+        <v>2274.216966808929</v>
       </c>
       <c r="W38" t="n">
-        <v>1235.645295624044</v>
+        <v>2274.216966808929</v>
       </c>
       <c r="X38" t="n">
-        <v>1235.645295624044</v>
+        <v>2274.216966808929</v>
       </c>
       <c r="Y38" t="n">
-        <v>839.1545865446449</v>
+        <v>1877.72625772953</v>
       </c>
     </row>
     <row r="39">
@@ -7232,46 +7232,46 @@
         <v>801.1419474330505</v>
       </c>
       <c r="C39" t="n">
-        <v>650.4877169931427</v>
+        <v>650.4877169931426</v>
       </c>
       <c r="D39" t="n">
-        <v>520.3987496146231</v>
+        <v>520.3987496146228</v>
       </c>
       <c r="E39" t="n">
-        <v>383.9522587255108</v>
+        <v>383.9522587255105</v>
       </c>
       <c r="F39" t="n">
-        <v>259.5204526086418</v>
+        <v>259.5204526086422</v>
       </c>
       <c r="G39" t="n">
-        <v>140.430042220374</v>
+        <v>140.4300422203744</v>
       </c>
       <c r="H39" t="n">
-        <v>61.49506179811871</v>
+        <v>61.49506179811897</v>
       </c>
       <c r="I39" t="n">
         <v>45.48433933617857</v>
       </c>
       <c r="J39" t="n">
-        <v>53.62948386015626</v>
+        <v>248.3644788398836</v>
       </c>
       <c r="K39" t="n">
-        <v>118.3514692623672</v>
+        <v>721.526576284321</v>
       </c>
       <c r="L39" t="n">
-        <v>681.220168547577</v>
+        <v>838.6629245975325</v>
       </c>
       <c r="M39" t="n">
-        <v>947.4307005623972</v>
+        <v>987.9374824264079</v>
       </c>
       <c r="N39" t="n">
-        <v>1510.299399847607</v>
+        <v>1150.52851281594</v>
       </c>
       <c r="O39" t="n">
-        <v>1644.59556103876</v>
+        <v>1320.152197859515</v>
       </c>
       <c r="P39" t="n">
-        <v>2207.46426032397</v>
+        <v>1883.020897144725</v>
       </c>
       <c r="Q39" t="n">
         <v>2238.66750476632</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>45.48433933617857</v>
+        <v>546.7825860067557</v>
       </c>
       <c r="C40" t="n">
-        <v>45.48433933617857</v>
+        <v>546.7825860067557</v>
       </c>
       <c r="D40" t="n">
-        <v>45.48433933617857</v>
+        <v>391.1494729092704</v>
       </c>
       <c r="E40" t="n">
-        <v>45.48433933617857</v>
+        <v>235.5906607684729</v>
       </c>
       <c r="F40" t="n">
-        <v>45.48433933617857</v>
+        <v>78.26472598144585</v>
       </c>
       <c r="G40" t="n">
-        <v>45.48433933617857</v>
+        <v>78.26472598144585</v>
       </c>
       <c r="H40" t="n">
         <v>45.48433933617857</v>
@@ -7332,7 +7332,7 @@
         <v>45.48433933617857</v>
       </c>
       <c r="J40" t="n">
-        <v>72.02637168026276</v>
+        <v>72.02637168026274</v>
       </c>
       <c r="K40" t="n">
         <v>246.4055305416058</v>
@@ -7359,25 +7359,25 @@
         <v>1706.823976149644</v>
       </c>
       <c r="S40" t="n">
-        <v>1518.171363062435</v>
+        <v>1706.823976149644</v>
       </c>
       <c r="T40" t="n">
-        <v>1518.171363062435</v>
+        <v>1474.577449744698</v>
       </c>
       <c r="U40" t="n">
-        <v>1237.194488675852</v>
+        <v>1189.182988098431</v>
       </c>
       <c r="V40" t="n">
-        <v>971.2151434966759</v>
+        <v>1189.182988098431</v>
       </c>
       <c r="W40" t="n">
-        <v>687.8847414278534</v>
+        <v>1189.182988098431</v>
       </c>
       <c r="X40" t="n">
-        <v>453.8044192108365</v>
+        <v>955.1026658814136</v>
       </c>
       <c r="Y40" t="n">
-        <v>230.6923580274799</v>
+        <v>731.9906046980569</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2054.929871516067</v>
+        <v>1295.171537826338</v>
       </c>
       <c r="C41" t="n">
-        <v>1661.754370018998</v>
+        <v>901.9960363292685</v>
       </c>
       <c r="D41" t="n">
-        <v>1276.313241235666</v>
+        <v>516.5549075459362</v>
       </c>
       <c r="E41" t="n">
-        <v>873.7297163522101</v>
+        <v>113.9713826624807</v>
       </c>
       <c r="F41" t="n">
-        <v>456.8352778821879</v>
+        <v>113.9713826624807</v>
       </c>
       <c r="G41" t="n">
-        <v>45.48433933617857</v>
+        <v>113.9713826624807</v>
       </c>
       <c r="H41" t="n">
-        <v>45.48433933617857</v>
+        <v>113.9713826624807</v>
       </c>
       <c r="I41" t="n">
-        <v>45.48433933617857</v>
+        <v>45.48433933617859</v>
       </c>
       <c r="J41" t="n">
         <v>340.8496760276703</v>
       </c>
       <c r="K41" t="n">
-        <v>425.1054180109518</v>
+        <v>647.9832875594232</v>
       </c>
       <c r="L41" t="n">
-        <v>553.6182615512218</v>
+        <v>776.4961310996932</v>
       </c>
       <c r="M41" t="n">
-        <v>717.1986961024282</v>
+        <v>940.0765656508995</v>
       </c>
       <c r="N41" t="n">
-        <v>1109.302878097464</v>
+        <v>1109.302878097465</v>
       </c>
       <c r="O41" t="n">
         <v>1260.430566436658</v>
       </c>
       <c r="P41" t="n">
-        <v>1823.299265721867</v>
+        <v>1823.299265721868</v>
       </c>
       <c r="Q41" t="n">
-        <v>2199.907123845821</v>
+        <v>2199.907123845822</v>
       </c>
       <c r="R41" t="n">
         <v>2274.216966808929</v>
       </c>
       <c r="S41" t="n">
-        <v>2148.990190862419</v>
+        <v>2274.216966808929</v>
       </c>
       <c r="T41" t="n">
-        <v>2148.990190862419</v>
+        <v>2274.216966808929</v>
       </c>
       <c r="U41" t="n">
-        <v>2148.990190862419</v>
+        <v>2092.156992617134</v>
       </c>
       <c r="V41" t="n">
-        <v>2148.990190862419</v>
+        <v>2092.156992617134</v>
       </c>
       <c r="W41" t="n">
-        <v>2148.990190862419</v>
+        <v>2092.156992617134</v>
       </c>
       <c r="X41" t="n">
-        <v>2148.990190862419</v>
+        <v>2092.156992617134</v>
       </c>
       <c r="Y41" t="n">
-        <v>2148.990190862419</v>
+        <v>1695.666283537735</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>801.1419474330505</v>
+        <v>801.1419474330498</v>
       </c>
       <c r="C42" t="n">
-        <v>650.4877169931427</v>
+        <v>650.487716993142</v>
       </c>
       <c r="D42" t="n">
-        <v>520.3987496146231</v>
+        <v>520.3987496146224</v>
       </c>
       <c r="E42" t="n">
-        <v>383.9522587255108</v>
+        <v>383.9522587255101</v>
       </c>
       <c r="F42" t="n">
-        <v>259.5204526086426</v>
+        <v>259.5204526086419</v>
       </c>
       <c r="G42" t="n">
-        <v>140.4300422203748</v>
+        <v>140.430042220374</v>
       </c>
       <c r="H42" t="n">
-        <v>61.49506179811945</v>
+        <v>61.49506179811873</v>
       </c>
       <c r="I42" t="n">
-        <v>45.48433933617857</v>
+        <v>45.48433933617859</v>
       </c>
       <c r="J42" t="n">
-        <v>53.62948386015626</v>
+        <v>248.3644788398836</v>
       </c>
       <c r="K42" t="n">
-        <v>306.5037980986468</v>
+        <v>721.526576284321</v>
       </c>
       <c r="L42" t="n">
-        <v>423.6401464118583</v>
+        <v>873.9904484499549</v>
       </c>
       <c r="M42" t="n">
-        <v>986.5088456970681</v>
+        <v>1023.26500627883</v>
       </c>
       <c r="N42" t="n">
-        <v>1549.377544982278</v>
+        <v>1185.856036668362</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.246244267488</v>
+        <v>1320.152197859516</v>
       </c>
       <c r="P42" t="n">
-        <v>2207.46426032397</v>
+        <v>1883.020897144725</v>
       </c>
       <c r="Q42" t="n">
-        <v>2238.66750476632</v>
+        <v>2238.667504766321</v>
       </c>
       <c r="R42" t="n">
         <v>2274.216966808929</v>
@@ -7520,22 +7520,22 @@
         <v>2157.292609583095</v>
       </c>
       <c r="T42" t="n">
-        <v>1984.216190453664</v>
+        <v>1984.216190453663</v>
       </c>
       <c r="U42" t="n">
-        <v>1774.216823944139</v>
+        <v>1774.216823944138</v>
       </c>
       <c r="V42" t="n">
-        <v>1551.676822315206</v>
+        <v>1551.676822315205</v>
       </c>
       <c r="W42" t="n">
-        <v>1321.559576448493</v>
+        <v>1321.559576448492</v>
       </c>
       <c r="X42" t="n">
-        <v>1132.252498798505</v>
+        <v>1132.252498798504</v>
       </c>
       <c r="Y42" t="n">
-        <v>952.9382818740119</v>
+        <v>952.9382818740112</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>465.330021614149</v>
+        <v>674.137465214262</v>
       </c>
       <c r="C43" t="n">
-        <v>465.330021614149</v>
+        <v>674.137465214262</v>
       </c>
       <c r="D43" t="n">
-        <v>309.6969085166637</v>
+        <v>518.5043521167767</v>
       </c>
       <c r="E43" t="n">
-        <v>154.1380963758662</v>
+        <v>518.5043521167767</v>
       </c>
       <c r="F43" t="n">
-        <v>154.1380963758662</v>
+        <v>361.1784173297496</v>
       </c>
       <c r="G43" t="n">
-        <v>154.1380963758662</v>
+        <v>193.7370821461105</v>
       </c>
       <c r="H43" t="n">
-        <v>154.1380963758662</v>
+        <v>45.48433933617859</v>
       </c>
       <c r="I43" t="n">
-        <v>45.48433933617857</v>
+        <v>45.48433933617859</v>
       </c>
       <c r="J43" t="n">
-        <v>72.02637168026276</v>
+        <v>72.02637168026277</v>
       </c>
       <c r="K43" t="n">
         <v>246.4055305416058</v>
@@ -7593,28 +7593,28 @@
         <v>1706.823976149644</v>
       </c>
       <c r="R43" t="n">
-        <v>1619.465775635521</v>
+        <v>1706.823976149644</v>
       </c>
       <c r="S43" t="n">
-        <v>1430.813162548312</v>
+        <v>1518.171363062435</v>
       </c>
       <c r="T43" t="n">
-        <v>1198.566636143366</v>
+        <v>1518.171363062435</v>
       </c>
       <c r="U43" t="n">
-        <v>913.1721744970991</v>
+        <v>1408.655231153562</v>
       </c>
       <c r="V43" t="n">
-        <v>650.5380403054503</v>
+        <v>1142.675885974386</v>
       </c>
       <c r="W43" t="n">
-        <v>650.5380403054503</v>
+        <v>859.3454839055632</v>
       </c>
       <c r="X43" t="n">
-        <v>650.5380403054503</v>
+        <v>859.3454839055632</v>
       </c>
       <c r="Y43" t="n">
-        <v>650.5380403054503</v>
+        <v>859.3454839055632</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1295.171537826338</v>
+        <v>1247.744539609102</v>
       </c>
       <c r="C44" t="n">
-        <v>901.9960363292685</v>
+        <v>1247.744539609102</v>
       </c>
       <c r="D44" t="n">
-        <v>516.5549075459362</v>
+        <v>1247.744539609102</v>
       </c>
       <c r="E44" t="n">
-        <v>113.9713826624807</v>
+        <v>1247.744539609102</v>
       </c>
       <c r="F44" t="n">
-        <v>113.9713826624807</v>
+        <v>830.8501011390799</v>
       </c>
       <c r="G44" t="n">
-        <v>113.9713826624807</v>
+        <v>419.4991625930706</v>
       </c>
       <c r="H44" t="n">
         <v>113.9713826624807</v>
@@ -7651,25 +7651,25 @@
         <v>340.8496760276703</v>
       </c>
       <c r="K44" t="n">
-        <v>425.1054180109518</v>
+        <v>647.9832875594232</v>
       </c>
       <c r="L44" t="n">
-        <v>987.9741172961616</v>
+        <v>776.4961310996932</v>
       </c>
       <c r="M44" t="n">
-        <v>1151.554551847368</v>
+        <v>940.0765656508995</v>
       </c>
       <c r="N44" t="n">
-        <v>1565.613242406137</v>
+        <v>1109.302878097465</v>
       </c>
       <c r="O44" t="n">
-        <v>1716.74093074533</v>
+        <v>1260.430566436658</v>
       </c>
       <c r="P44" t="n">
-        <v>1823.299265721867</v>
+        <v>1823.299265721868</v>
       </c>
       <c r="Q44" t="n">
-        <v>2199.907123845821</v>
+        <v>2199.907123845822</v>
       </c>
       <c r="R44" t="n">
         <v>2274.216966808929</v>
@@ -7678,22 +7678,22 @@
         <v>2274.216966808929</v>
       </c>
       <c r="T44" t="n">
-        <v>2274.216966808929</v>
+        <v>2058.647593136955</v>
       </c>
       <c r="U44" t="n">
-        <v>2274.216966808929</v>
+        <v>1803.039808928833</v>
       </c>
       <c r="V44" t="n">
-        <v>2274.216966808929</v>
+        <v>1648.239285320499</v>
       </c>
       <c r="W44" t="n">
-        <v>1903.217931777216</v>
+        <v>1648.239285320499</v>
       </c>
       <c r="X44" t="n">
-        <v>1695.666283537735</v>
+        <v>1648.239285320499</v>
       </c>
       <c r="Y44" t="n">
-        <v>1695.666283537735</v>
+        <v>1648.239285320499</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>801.1419474330498</v>
+        <v>801.1419474330505</v>
       </c>
       <c r="C45" t="n">
-        <v>650.487716993142</v>
+        <v>650.4877169931426</v>
       </c>
       <c r="D45" t="n">
-        <v>520.3987496146224</v>
+        <v>520.3987496146228</v>
       </c>
       <c r="E45" t="n">
-        <v>383.95225872551</v>
+        <v>383.9522587255105</v>
       </c>
       <c r="F45" t="n">
-        <v>259.5204526086418</v>
+        <v>259.5204526086422</v>
       </c>
       <c r="G45" t="n">
-        <v>140.430042220374</v>
+        <v>140.4300422203744</v>
       </c>
       <c r="H45" t="n">
-        <v>61.49506179811871</v>
+        <v>61.49506179811897</v>
       </c>
       <c r="I45" t="n">
         <v>45.48433933617857</v>
@@ -7730,16 +7730,16 @@
         <v>248.3644788398836</v>
       </c>
       <c r="K45" t="n">
-        <v>313.0864642420946</v>
+        <v>721.526576284321</v>
       </c>
       <c r="L45" t="n">
-        <v>445.417910355898</v>
+        <v>838.6629245975325</v>
       </c>
       <c r="M45" t="n">
-        <v>594.6924681847735</v>
+        <v>987.9374824264079</v>
       </c>
       <c r="N45" t="n">
-        <v>757.2834985743053</v>
+        <v>1150.52851281594</v>
       </c>
       <c r="O45" t="n">
         <v>1320.152197859515</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>757.3934365768347</v>
+        <v>951.2292175417308</v>
       </c>
       <c r="C46" t="n">
-        <v>757.3934365768347</v>
+        <v>781.02409960772</v>
       </c>
       <c r="D46" t="n">
-        <v>757.3934365768347</v>
+        <v>625.3909865102347</v>
       </c>
       <c r="E46" t="n">
-        <v>757.3934365768347</v>
+        <v>469.8321743694372</v>
       </c>
       <c r="F46" t="n">
-        <v>721.531087035151</v>
+        <v>469.8321743694372</v>
       </c>
       <c r="G46" t="n">
-        <v>721.531087035151</v>
+        <v>302.3908391857981</v>
       </c>
       <c r="H46" t="n">
-        <v>721.531087035151</v>
+        <v>154.1380963758662</v>
       </c>
       <c r="I46" t="n">
-        <v>612.8773299954634</v>
+        <v>45.48433933617857</v>
       </c>
       <c r="J46" t="n">
-        <v>639.4193623395475</v>
+        <v>72.02637168026274</v>
       </c>
       <c r="K46" t="n">
-        <v>813.7985212008906</v>
+        <v>246.4055305416058</v>
       </c>
       <c r="L46" t="n">
-        <v>1096.350769971906</v>
+        <v>528.9577793126211</v>
       </c>
       <c r="M46" t="n">
-        <v>1407.504494036884</v>
+        <v>840.1115033775995</v>
       </c>
       <c r="N46" t="n">
-        <v>1712.587331050045</v>
+        <v>1145.19434039076</v>
       </c>
       <c r="O46" t="n">
-        <v>1987.88020003219</v>
+        <v>1420.487209372905</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.094937214452</v>
+        <v>1636.701946555168</v>
       </c>
       <c r="Q46" t="n">
-        <v>2274.216966808929</v>
+        <v>1706.823976149644</v>
       </c>
       <c r="R46" t="n">
-        <v>2186.858766294806</v>
+        <v>1619.465775635521</v>
       </c>
       <c r="S46" t="n">
-        <v>1998.206153207597</v>
+        <v>1430.813162548312</v>
       </c>
       <c r="T46" t="n">
-        <v>1765.959626802651</v>
+        <v>1430.813162548312</v>
       </c>
       <c r="U46" t="n">
-        <v>1480.565165156384</v>
+        <v>1359.549297416389</v>
       </c>
       <c r="V46" t="n">
-        <v>1214.585819977208</v>
+        <v>1359.549297416389</v>
       </c>
       <c r="W46" t="n">
-        <v>1214.585819977208</v>
+        <v>1359.549297416389</v>
       </c>
       <c r="X46" t="n">
-        <v>980.5054977601914</v>
+        <v>1359.549297416389</v>
       </c>
       <c r="Y46" t="n">
-        <v>757.3934365768347</v>
+        <v>1136.437236233032</v>
       </c>
     </row>
   </sheetData>
@@ -8455,19 +8455,19 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>152.0895311361142</v>
       </c>
       <c r="L8" t="n">
-        <v>162.2792976873685</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>158.7561795546041</v>
       </c>
       <c r="N8" t="n">
-        <v>158.1496192946609</v>
+        <v>157.7847252357972</v>
       </c>
       <c r="O8" t="n">
-        <v>158.2300713221095</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
         <v>159.332575197802</v>
@@ -8531,25 +8531,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>91.47558529021019</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>98.72658075493136</v>
       </c>
       <c r="M9" t="n">
-        <v>101.053355947325</v>
+        <v>101.4182500061888</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>94.4032408110435</v>
       </c>
       <c r="O9" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>96.1144927761915</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>100.0192811127908</v>
@@ -8613,25 +8613,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K10" t="n">
-        <v>83.85861781084799</v>
+        <v>92.88974576772483</v>
       </c>
       <c r="L10" t="n">
         <v>87.67503958280489</v>
       </c>
       <c r="M10" t="n">
-        <v>99.33288752282012</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N10" t="n">
-        <v>92.02673185927841</v>
+        <v>88.20507379026222</v>
       </c>
       <c r="O10" t="n">
         <v>99.02787795057465</v>
       </c>
       <c r="P10" t="n">
-        <v>98.18943652995907</v>
+        <v>98.55433058882278</v>
       </c>
       <c r="Q10" t="n">
-        <v>98.47825105913979</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,10 +8692,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>225.1291611600715</v>
       </c>
       <c r="L11" t="n">
-        <v>225.1291611600714</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>450.2346979515133</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>57.82409707995009</v>
       </c>
       <c r="N12" t="n">
-        <v>163.1139454140874</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>432.90155363036</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>472.3744275037648</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
-        <v>35.10525738787424</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>483.4474316181095</v>
       </c>
       <c r="L14" t="n">
-        <v>363.4905959410157</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>397.6185725642874</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>72.89311497141432</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>460.9195599077496</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>27.45716756437074</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>247.9591462857856</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>450.2346979515135</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>57.82409707995029</v>
       </c>
       <c r="O15" t="n">
-        <v>432.90155363036</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>472.3744275037648</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
-        <v>35.10525738787424</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>483.4474316181095</v>
+        <v>225.1291611600722</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9175,19 +9175,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>397.6185725642874</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>211.2545497523577</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>460.9195599077496</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
-        <v>27.45716756437074</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>450.2346979515135</v>
       </c>
       <c r="M18" t="n">
-        <v>417.7718600569034</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>404.320877672402</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>172.7197130892297</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>57.82409707995021</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>483.4474316181094</v>
+        <v>225.1291611600715</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9412,19 +9412,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>397.6185725642873</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>143.8338839913413</v>
+        <v>460.9195599077495</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
-        <v>27.45716756437074</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>194.7174544468458</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>450.2346979515134</v>
       </c>
       <c r="M21" t="n">
-        <v>417.7718600569033</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>404.3208776724019</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>426.2523959097055</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>472.3744275037647</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>483.4474316181095</v>
       </c>
       <c r="L23" t="n">
-        <v>148.8993886426723</v>
+        <v>438.7432886312523</v>
       </c>
       <c r="M23" t="n">
-        <v>403.3214795292964</v>
+        <v>170.129833685393</v>
       </c>
       <c r="N23" t="n">
-        <v>397.6185725642873</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5176150018526</v>
+        <v>27.45716756437075</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>450.2346979515133</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>270.0988758380369</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>432.9015536303598</v>
+        <v>35.68436752769901</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>472.3744275037648</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>35.10525738787424</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,13 +9880,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>282.7272415385245</v>
+        <v>438.7432886312522</v>
       </c>
       <c r="M26" t="n">
-        <v>403.3214795292964</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>397.6185725642873</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294513</v>
+        <v>180.8982453017328</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>450.2346979515133</v>
       </c>
       <c r="M27" t="n">
-        <v>417.7718600569033</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>121.9993075790206</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>432.9015536303598</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>472.3744275037647</v>
+        <v>57.82409707994998</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>28.78895391358579</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>483.4474316181095</v>
       </c>
       <c r="L29" t="n">
-        <v>438.7432886312522</v>
+        <v>438.7432886312523</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>397.6185725642874</v>
+        <v>170.1298336853931</v>
       </c>
       <c r="O29" t="n">
-        <v>415.9000110565825</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>102.5176150018526</v>
+        <v>27.45716756437075</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,28 +10193,28 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>417.7718600569034</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>105.8596986016092</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>432.90155363036</v>
+        <v>35.68436752769901</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>472.3744275037648</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>35.10525738787424</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>300.1896085975538</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>403.3214795292964</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>397.6185725642874</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>216.320054403689</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>460.9195599077496</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
-        <v>102.5176150018526</v>
+        <v>27.45716756437075</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>37.48831318921303</v>
       </c>
       <c r="L33" t="n">
         <v>450.2346979515135</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>404.320877672402</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>432.9015536303599</v>
+        <v>432.90155363036</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>193.4985670335594</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>35.10525738787424</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>225.1291611600722</v>
       </c>
       <c r="L35" t="n">
-        <v>225.1291611600714</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>460.9195599077495</v>
+        <v>460.9195599077496</v>
       </c>
       <c r="Q35" t="n">
         <v>331.2113854294513</v>
@@ -10664,16 +10664,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>450.2346979515135</v>
       </c>
       <c r="M36" t="n">
-        <v>417.7718600569034</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>472.3744275037649</v>
+        <v>385.5446659478748</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.6661632578668</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>483.4474316181095</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>336.6838346398488</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>225.1291611600722</v>
       </c>
       <c r="P38" t="n">
-        <v>460.9195599077495</v>
+        <v>460.9195599077496</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>450.2346979515135</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>118.1171456423684</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>404.320877672402</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>35.68436752769901</v>
       </c>
       <c r="P39" t="n">
         <v>472.3744275037648</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11062,7 +11062,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>225.1291611600721</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11071,13 +11071,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>225.1291611600716</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>460.9195599077495</v>
+        <v>460.9195599077497</v>
       </c>
       <c r="Q41" t="n">
         <v>331.2113854294513</v>
@@ -11138,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>190.0528574103834</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>35.68436752769939</v>
       </c>
       <c r="M42" t="n">
-        <v>417.7718600569034</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>404.320877672402</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>432.90155363036</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>472.3744275037649</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11299,22 +11299,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>225.1291611600722</v>
       </c>
       <c r="L44" t="n">
-        <v>438.7432886312522</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>247.305432436569</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>460.9195599077496</v>
       </c>
       <c r="Q44" t="n">
         <v>331.2113854294513</v>
@@ -11378,10 +11378,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>15.34858363696149</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>432.90155363036</v>
+        <v>35.68436752769901</v>
       </c>
       <c r="P45" t="n">
         <v>472.3744275037648</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>233.5223252760788</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>306.6521376079007</v>
+        <v>407.2374291605492</v>
       </c>
       <c r="H11" t="n">
-        <v>302.4725021312839</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.80217289303906</v>
+        <v>67.80217289303907</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>123.9745081870442</v>
       </c>
       <c r="T11" t="n">
-        <v>213.4136799352533</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.0517063660412</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>14.99492756073727</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7669218318028</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.7702153818325</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>107.5672194692907</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>86.48461850898141</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>186.7660869563366</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>67.21184547561555</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>48.833844735318</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
@@ -23509,7 +23509,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>407.2374291605492</v>
+        <v>361.2975192817107</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>123.9745081870442</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.7669218318028</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.7702153818325</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>107.5672194692907</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>86.48461850898141</v>
       </c>
       <c r="S16" t="n">
-        <v>186.7660869563366</v>
+        <v>50.94153402359507</v>
       </c>
       <c r="T16" t="n">
-        <v>229.9240611408965</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5405170298046</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.27029522061795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>337.6907456286083</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>33.1400755817773</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>407.2374291605492</v>
       </c>
       <c r="H17" t="n">
-        <v>302.4725021312839</v>
+        <v>302.472502131284</v>
       </c>
       <c r="I17" t="n">
-        <v>67.80217289303906</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>123.9745081870442</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.4136799352533</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.7669218318028</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.7702153818325</v>
       </c>
       <c r="I19" t="n">
         <v>107.5672194692907</v>
@@ -23940,22 +23940,22 @@
         <v>86.48461850898141</v>
       </c>
       <c r="S19" t="n">
-        <v>186.7660869563366</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>152.2700851958515</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5405170298046</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>67.88128487185554</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -23983,13 +23983,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>300.5200813927697</v>
+        <v>407.2374291605492</v>
       </c>
       <c r="H20" t="n">
-        <v>302.4725021312839</v>
+        <v>93.30412249219572</v>
       </c>
       <c r="I20" t="n">
-        <v>67.80217289303906</v>
+        <v>67.80217289303907</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>213.4136799352533</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0517063660412</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>146.7702153818325</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>107.5672194692907</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>30.27008859526346</v>
+        <v>86.48461850898141</v>
       </c>
       <c r="S22" t="n">
         <v>186.7660869563366</v>
       </c>
       <c r="T22" t="n">
-        <v>229.9240611408965</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>282.5405170298046</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>261.4357122158216</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24214,19 +24214,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>295.4903814373737</v>
       </c>
       <c r="G23" t="n">
-        <v>407.2374291605492</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>302.472502131284</v>
       </c>
       <c r="I23" t="n">
-        <v>67.80217289303906</v>
+        <v>67.80217289303907</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>123.9745081870442</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0517063660412</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>196.0212336586051</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24375,10 +24375,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.7669218318028</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>146.7702153818325</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>86.48461850898141</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>52.39561219761532</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5405170298046</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>137.4261525325766</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24448,10 +24448,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>137.5165316733581</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
@@ -24460,10 +24460,10 @@
         <v>407.2374291605492</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>302.472502131284</v>
       </c>
       <c r="I26" t="n">
-        <v>48.06350643619955</v>
+        <v>67.80217289303907</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>253.0517063660412</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>86.48461850898141</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>50.94153402359507</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>137.4261525325766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>407.2374291605492</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>302.4725021312839</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>67.80217289303906</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>123.9745081870442</v>
       </c>
       <c r="T29" t="n">
-        <v>213.4136799352533</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.0517063660412</v>
       </c>
       <c r="V29" t="n">
-        <v>81.64313238443037</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>274.57103745791</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>107.5672194692907</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>86.48461850898141</v>
       </c>
       <c r="S31" t="n">
-        <v>186.7660869563366</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>229.9240611408965</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5405170298046</v>
@@ -24900,10 +24900,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>140.1248932541021</v>
       </c>
       <c r="X31" t="n">
-        <v>130.1748809970623</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>407.2374291605492</v>
       </c>
       <c r="H32" t="n">
-        <v>302.4725021312839</v>
+        <v>302.472502131284</v>
       </c>
       <c r="I32" t="n">
-        <v>67.80217289303906</v>
+        <v>67.80217289303907</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>123.9745081870442</v>
       </c>
       <c r="T32" t="n">
-        <v>213.4136799352533</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0517063660412</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>55.68988144155014</v>
+        <v>195.7225547631136</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>85.04827871572421</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.7669218318028</v>
+        <v>149.3294966842366</v>
       </c>
       <c r="H34" t="n">
-        <v>146.7702153818325</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>107.5672194692907</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>186.7660869563366</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
@@ -25165,16 +25165,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>407.2374291605492</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>302.472502131284</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>67.80217289303907</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.95932813014744</v>
+        <v>123.9745081870442</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.4136799352533</v>
       </c>
       <c r="U35" t="n">
         <v>253.0517063660412</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>63.3469104281499</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.53138557164678</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25329,10 +25329,10 @@
         <v>165.7669218318028</v>
       </c>
       <c r="H37" t="n">
-        <v>146.7702153818325</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>107.5672194692907</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>86.48461850898141</v>
       </c>
       <c r="S37" t="n">
-        <v>186.7660869563366</v>
+        <v>84.3980283031954</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25396,10 +25396,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -25408,10 +25408,10 @@
         <v>407.2374291605492</v>
       </c>
       <c r="H38" t="n">
-        <v>302.4725021312839</v>
+        <v>54.4309547883679</v>
       </c>
       <c r="I38" t="n">
-        <v>67.80217289303906</v>
+        <v>67.80217289303907</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>123.9745081870442</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>213.4136799352533</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.0517063660412</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>268.2287259002152</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -25554,19 +25554,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.7669218318028</v>
       </c>
       <c r="H40" t="n">
-        <v>146.7702153818325</v>
+        <v>114.3176326030179</v>
       </c>
       <c r="I40" t="n">
         <v>107.5672194692907</v>
@@ -25599,19 +25599,19 @@
         <v>86.48461850898141</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>186.7660869563366</v>
       </c>
       <c r="T40" t="n">
-        <v>229.9240611408965</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>4.373411387086833</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>303.3700821013943</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>407.2374291605492</v>
       </c>
       <c r="H41" t="n">
-        <v>302.4725021312839</v>
+        <v>302.472502131284</v>
       </c>
       <c r="I41" t="n">
-        <v>67.80217289303906</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>123.9745081870442</v>
       </c>
       <c r="T41" t="n">
         <v>213.4136799352533</v>
       </c>
       <c r="U41" t="n">
-        <v>253.0517063660412</v>
+        <v>72.81233191616374</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25696,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.7669218318028</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>146.7702153818325</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>107.5672194692907</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>86.48461850898141</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.9240611408965</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>174.1195464400197</v>
       </c>
       <c r="V43" t="n">
-        <v>3.311758877651641</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>407.2374291605492</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>302.4725021312839</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>123.9745081870442</v>
       </c>
       <c r="T44" t="n">
-        <v>213.4136799352533</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0517063660412</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>185.4332228312661</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>180.0819472591873</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>120.2489493928899</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>165.7669218318028</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>146.7702153818325</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.9240611408965</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>211.9892905492002</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>567404.9074458352</v>
+        <v>567404.9074458351</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>567404.9074458352</v>
+        <v>567404.9074458351</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>567404.9074458351</v>
+        <v>567404.9074458352</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>567404.9074458354</v>
+        <v>567404.9074458352</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>567404.9074458354</v>
+        <v>567404.9074458351</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>567404.9074458352</v>
+        <v>567404.9074458353</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>567404.9074458352</v>
+        <v>567404.9074458354</v>
       </c>
     </row>
     <row r="14">
@@ -26322,40 +26322,40 @@
         <v>504724.248580722</v>
       </c>
       <c r="E2" t="n">
-        <v>335641.2796594332</v>
+        <v>335641.279659433</v>
       </c>
       <c r="F2" t="n">
-        <v>335641.2796594332</v>
+        <v>335641.279659433</v>
       </c>
       <c r="G2" t="n">
-        <v>335641.279659433</v>
+        <v>335641.2796594328</v>
       </c>
       <c r="H2" t="n">
-        <v>335641.279659433</v>
+        <v>335641.2796594329</v>
       </c>
       <c r="I2" t="n">
-        <v>335641.2796594328</v>
+        <v>335641.2796594331</v>
       </c>
       <c r="J2" t="n">
-        <v>335641.279659433</v>
+        <v>335641.2796594329</v>
       </c>
       <c r="K2" t="n">
-        <v>335641.2796594331</v>
+        <v>335641.2796594329</v>
       </c>
       <c r="L2" t="n">
         <v>335641.2796594331</v>
       </c>
       <c r="M2" t="n">
-        <v>335641.279659433</v>
+        <v>335641.2796594331</v>
       </c>
       <c r="N2" t="n">
-        <v>335641.279659433</v>
+        <v>335641.2796594328</v>
       </c>
       <c r="O2" t="n">
-        <v>335641.2796594332</v>
+        <v>335641.2796594328</v>
       </c>
       <c r="P2" t="n">
-        <v>335641.2796594331</v>
+        <v>335641.2796594329</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>2805.339277244654</v>
       </c>
       <c r="E3" t="n">
-        <v>525525.7120297789</v>
+        <v>525525.7120297787</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370028.2700183725</v>
+        <v>370028.2700183726</v>
       </c>
       <c r="C4" t="n">
-        <v>370028.2700183725</v>
+        <v>370028.2700183726</v>
       </c>
       <c r="D4" t="n">
         <v>369502.3763690162</v>
       </c>
       <c r="E4" t="n">
-        <v>64415.37815643584</v>
+        <v>64415.37815643585</v>
       </c>
       <c r="F4" t="n">
-        <v>64415.37815643585</v>
+        <v>64415.37815643589</v>
       </c>
       <c r="G4" t="n">
-        <v>64415.37815643584</v>
+        <v>64415.37815643587</v>
       </c>
       <c r="H4" t="n">
         <v>64415.37815643584</v>
       </c>
       <c r="I4" t="n">
-        <v>64415.37815643584</v>
+        <v>64415.37815643587</v>
       </c>
       <c r="J4" t="n">
         <v>64415.37815643584</v>
       </c>
       <c r="K4" t="n">
-        <v>64415.37815643587</v>
+        <v>64415.37815643588</v>
       </c>
       <c r="L4" t="n">
         <v>64415.37815643587</v>
       </c>
       <c r="M4" t="n">
-        <v>64415.37815643584</v>
+        <v>64415.37815643587</v>
       </c>
       <c r="N4" t="n">
-        <v>64415.37815643586</v>
+        <v>64415.37815643587</v>
       </c>
       <c r="O4" t="n">
-        <v>64415.37815643585</v>
+        <v>64415.37815643587</v>
       </c>
       <c r="P4" t="n">
-        <v>64415.37815643584</v>
+        <v>64415.37815643587</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100061.9496628353</v>
+        <v>100057.6200950488</v>
       </c>
       <c r="C6" t="n">
-        <v>100061.9496628353</v>
+        <v>100057.6200950489</v>
       </c>
       <c r="D6" t="n">
-        <v>98239.84035468311</v>
+        <v>98239.10517582353</v>
       </c>
       <c r="E6" t="n">
-        <v>-298594.6885700628</v>
+        <v>-299199.2914950699</v>
       </c>
       <c r="F6" t="n">
-        <v>226931.023459716</v>
+        <v>226326.4205347087</v>
       </c>
       <c r="G6" t="n">
-        <v>226931.0234597158</v>
+        <v>226326.4205347086</v>
       </c>
       <c r="H6" t="n">
-        <v>226931.0234597158</v>
+        <v>226326.4205347087</v>
       </c>
       <c r="I6" t="n">
-        <v>226931.0234597157</v>
+        <v>226326.4205347089</v>
       </c>
       <c r="J6" t="n">
-        <v>226931.0234597158</v>
+        <v>226326.4205347087</v>
       </c>
       <c r="K6" t="n">
-        <v>226931.0234597159</v>
+        <v>226326.4205347087</v>
       </c>
       <c r="L6" t="n">
-        <v>224645.3262539819</v>
+        <v>224040.7233289749</v>
       </c>
       <c r="M6" t="n">
-        <v>87495.62542191829</v>
+        <v>86891.02249691129</v>
       </c>
       <c r="N6" t="n">
-        <v>226931.0234597158</v>
+        <v>226326.4205347086</v>
       </c>
       <c r="O6" t="n">
-        <v>226931.023459716</v>
+        <v>226326.4205347086</v>
       </c>
       <c r="P6" t="n">
-        <v>226931.0234597159</v>
+        <v>226326.4205347087</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>446.1825755864966</v>
+        <v>446.1825755864965</v>
       </c>
       <c r="F3" t="n">
-        <v>446.1825755864966</v>
+        <v>446.1825755864965</v>
       </c>
       <c r="G3" t="n">
-        <v>446.1825755864966</v>
+        <v>446.1825755864965</v>
       </c>
       <c r="H3" t="n">
-        <v>446.1825755864966</v>
+        <v>446.1825755864965</v>
       </c>
       <c r="I3" t="n">
-        <v>446.1825755864966</v>
+        <v>446.1825755864965</v>
       </c>
       <c r="J3" t="n">
-        <v>446.1825755864966</v>
+        <v>446.1825755864965</v>
       </c>
       <c r="K3" t="n">
-        <v>446.1825755864966</v>
+        <v>446.1825755864965</v>
       </c>
       <c r="L3" t="n">
-        <v>446.1825755864966</v>
+        <v>446.1825755864965</v>
       </c>
       <c r="M3" t="n">
-        <v>446.1825755864966</v>
+        <v>446.1825755864965</v>
       </c>
       <c r="N3" t="n">
-        <v>446.1825755864966</v>
+        <v>446.1825755864965</v>
       </c>
       <c r="O3" t="n">
-        <v>446.1825755864966</v>
+        <v>446.1825755864965</v>
       </c>
       <c r="P3" t="n">
-        <v>446.1825755864966</v>
+        <v>446.1825755864965</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="E4" t="n">
-        <v>568.5542417022322</v>
+        <v>568.554241702232</v>
       </c>
       <c r="F4" t="n">
         <v>568.5542417022322</v>
@@ -26810,7 +26810,7 @@
         <v>568.554241702232</v>
       </c>
       <c r="I4" t="n">
-        <v>568.554241702232</v>
+        <v>568.5542417022322</v>
       </c>
       <c r="J4" t="n">
         <v>568.554241702232</v>
@@ -26828,7 +26828,7 @@
         <v>568.5542417022322</v>
       </c>
       <c r="O4" t="n">
-        <v>568.5542417022322</v>
+        <v>568.5542417022323</v>
       </c>
       <c r="P4" t="n">
         <v>568.5542417022322</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>446.1825755864966</v>
+        <v>446.1825755864965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="E4" t="n">
-        <v>559.5231137453553</v>
+        <v>559.5231137453552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="M4" t="n">
-        <v>559.5231137453553</v>
+        <v>559.5231137453552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="M4" t="n">
-        <v>559.5231137453553</v>
+        <v>559.5231137453552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>389.526561677744</v>
+        <v>390.6030721302038</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>312.8876024247571</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>28.58185662045643</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27937,7 +27937,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
-        <v>119.7569497478576</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E9" t="n">
         <v>135.0820259802211</v>
@@ -27946,13 +27946,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
-        <v>118.8592197488542</v>
+        <v>110.9046022444371</v>
       </c>
       <c r="H9" t="n">
-        <v>87.41444223540508</v>
+        <v>78.38331427852823</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820752</v>
+        <v>39.86225349133068</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,10 +27982,10 @@
         <v>14.64674471403926</v>
       </c>
       <c r="S9" t="n">
-        <v>124.550242372253</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T9" t="n">
-        <v>167.2593561786635</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U9" t="n">
         <v>207.9625118881446</v>
@@ -28025,7 +28025,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>158.6168958571318</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28034,7 +28034,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>21.04335951528223</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>113.630851516872</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>191.7567950223993</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>224.3307333565714</v>
       </c>
       <c r="U10" t="n">
-        <v>274.6297863361009</v>
+        <v>273.5532758836412</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -31758,19 +31758,19 @@
         <v>18.36971779789027</v>
       </c>
       <c r="I11" t="n">
-        <v>69.15157284542076</v>
+        <v>69.15157284542074</v>
       </c>
       <c r="J11" t="n">
         <v>152.2379432148117</v>
       </c>
       <c r="K11" t="n">
-        <v>228.1652132633601</v>
+        <v>228.16521326336</v>
       </c>
       <c r="L11" t="n">
         <v>283.0591228014716</v>
       </c>
       <c r="M11" t="n">
-        <v>314.957813770663</v>
+        <v>314.9578137706629</v>
       </c>
       <c r="N11" t="n">
         <v>320.0541604757288</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9597134644690681</v>
+        <v>0.959713464469068</v>
       </c>
       <c r="H12" t="n">
-        <v>9.268811617372318</v>
+        <v>9.268811617372316</v>
       </c>
       <c r="I12" t="n">
         <v>33.04276621088678</v>
@@ -31861,19 +31861,19 @@
         <v>183.263179017782</v>
       </c>
       <c r="Q12" t="n">
-        <v>122.5065818855604</v>
+        <v>122.5065818855603</v>
       </c>
       <c r="R12" t="n">
-        <v>59.58642018870234</v>
+        <v>59.58642018870233</v>
       </c>
       <c r="S12" t="n">
         <v>17.82625667555483</v>
       </c>
       <c r="T12" t="n">
-        <v>3.868318744943304</v>
+        <v>3.868318744943303</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0631390437150703</v>
+        <v>0.06313904371507029</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8045915297461412</v>
+        <v>0.8045915297461411</v>
       </c>
       <c r="H13" t="n">
-        <v>7.153550146288425</v>
+        <v>7.153550146288424</v>
       </c>
       <c r="I13" t="n">
         <v>24.19626164000215</v>
       </c>
       <c r="J13" t="n">
-        <v>56.88462115305219</v>
+        <v>56.88462115305218</v>
       </c>
       <c r="K13" t="n">
         <v>93.47890681959711</v>
@@ -31937,7 +31937,7 @@
         <v>113.725355495391</v>
       </c>
       <c r="P13" t="n">
-        <v>97.31168828856963</v>
+        <v>97.31168828856961</v>
       </c>
       <c r="Q13" t="n">
         <v>67.37356891356097</v>
@@ -31946,10 +31946,10 @@
         <v>36.1773609647674</v>
       </c>
       <c r="S13" t="n">
-        <v>14.02183602293957</v>
+        <v>14.02183602293956</v>
       </c>
       <c r="T13" t="n">
-        <v>3.437800172551694</v>
+        <v>3.437800172551693</v>
       </c>
       <c r="U13" t="n">
         <v>0.04388681071342593</v>
@@ -31995,19 +31995,19 @@
         <v>18.36971779789027</v>
       </c>
       <c r="I14" t="n">
-        <v>69.15157284542076</v>
+        <v>69.15157284542074</v>
       </c>
       <c r="J14" t="n">
         <v>152.2379432148117</v>
       </c>
       <c r="K14" t="n">
-        <v>228.1652132633601</v>
+        <v>228.16521326336</v>
       </c>
       <c r="L14" t="n">
         <v>283.0591228014716</v>
       </c>
       <c r="M14" t="n">
-        <v>314.957813770663</v>
+        <v>314.9578137706629</v>
       </c>
       <c r="N14" t="n">
         <v>320.0541604757288</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9597134644690681</v>
+        <v>0.959713464469068</v>
       </c>
       <c r="H15" t="n">
-        <v>9.268811617372318</v>
+        <v>9.268811617372316</v>
       </c>
       <c r="I15" t="n">
         <v>33.04276621088678</v>
@@ -32098,19 +32098,19 @@
         <v>183.263179017782</v>
       </c>
       <c r="Q15" t="n">
-        <v>122.5065818855604</v>
+        <v>122.5065818855603</v>
       </c>
       <c r="R15" t="n">
-        <v>59.58642018870234</v>
+        <v>59.58642018870233</v>
       </c>
       <c r="S15" t="n">
         <v>17.82625667555483</v>
       </c>
       <c r="T15" t="n">
-        <v>3.868318744943304</v>
+        <v>3.868318744943303</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0631390437150703</v>
+        <v>0.06313904371507029</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8045915297461412</v>
+        <v>0.8045915297461411</v>
       </c>
       <c r="H16" t="n">
-        <v>7.153550146288425</v>
+        <v>7.153550146288424</v>
       </c>
       <c r="I16" t="n">
         <v>24.19626164000215</v>
       </c>
       <c r="J16" t="n">
-        <v>56.88462115305219</v>
+        <v>56.88462115305218</v>
       </c>
       <c r="K16" t="n">
         <v>93.47890681959711</v>
@@ -32174,7 +32174,7 @@
         <v>113.725355495391</v>
       </c>
       <c r="P16" t="n">
-        <v>97.31168828856963</v>
+        <v>97.31168828856961</v>
       </c>
       <c r="Q16" t="n">
         <v>67.37356891356097</v>
@@ -32183,10 +32183,10 @@
         <v>36.1773609647674</v>
       </c>
       <c r="S16" t="n">
-        <v>14.02183602293957</v>
+        <v>14.02183602293956</v>
       </c>
       <c r="T16" t="n">
-        <v>3.437800172551694</v>
+        <v>3.437800172551693</v>
       </c>
       <c r="U16" t="n">
         <v>0.04388681071342593</v>
@@ -32232,19 +32232,19 @@
         <v>18.36971779789027</v>
       </c>
       <c r="I17" t="n">
-        <v>69.15157284542076</v>
+        <v>69.15157284542074</v>
       </c>
       <c r="J17" t="n">
         <v>152.2379432148117</v>
       </c>
       <c r="K17" t="n">
-        <v>228.1652132633601</v>
+        <v>228.16521326336</v>
       </c>
       <c r="L17" t="n">
         <v>283.0591228014716</v>
       </c>
       <c r="M17" t="n">
-        <v>314.957813770663</v>
+        <v>314.9578137706629</v>
       </c>
       <c r="N17" t="n">
         <v>320.0541604757288</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9597134644690681</v>
+        <v>0.959713464469068</v>
       </c>
       <c r="H18" t="n">
-        <v>9.268811617372318</v>
+        <v>9.268811617372316</v>
       </c>
       <c r="I18" t="n">
         <v>33.04276621088678</v>
@@ -32335,19 +32335,19 @@
         <v>183.263179017782</v>
       </c>
       <c r="Q18" t="n">
-        <v>122.5065818855604</v>
+        <v>122.5065818855603</v>
       </c>
       <c r="R18" t="n">
-        <v>59.58642018870234</v>
+        <v>59.58642018870233</v>
       </c>
       <c r="S18" t="n">
         <v>17.82625667555483</v>
       </c>
       <c r="T18" t="n">
-        <v>3.868318744943304</v>
+        <v>3.868318744943303</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0631390437150703</v>
+        <v>0.06313904371507029</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8045915297461412</v>
+        <v>0.8045915297461411</v>
       </c>
       <c r="H19" t="n">
-        <v>7.153550146288425</v>
+        <v>7.153550146288424</v>
       </c>
       <c r="I19" t="n">
         <v>24.19626164000215</v>
       </c>
       <c r="J19" t="n">
-        <v>56.88462115305219</v>
+        <v>56.88462115305218</v>
       </c>
       <c r="K19" t="n">
         <v>93.47890681959711</v>
@@ -32411,7 +32411,7 @@
         <v>113.725355495391</v>
       </c>
       <c r="P19" t="n">
-        <v>97.31168828856963</v>
+        <v>97.31168828856961</v>
       </c>
       <c r="Q19" t="n">
         <v>67.37356891356097</v>
@@ -32420,10 +32420,10 @@
         <v>36.1773609647674</v>
       </c>
       <c r="S19" t="n">
-        <v>14.02183602293957</v>
+        <v>14.02183602293956</v>
       </c>
       <c r="T19" t="n">
-        <v>3.437800172551694</v>
+        <v>3.437800172551693</v>
       </c>
       <c r="U19" t="n">
         <v>0.04388681071342593</v>
@@ -32469,19 +32469,19 @@
         <v>18.36971779789027</v>
       </c>
       <c r="I20" t="n">
-        <v>69.15157284542076</v>
+        <v>69.15157284542074</v>
       </c>
       <c r="J20" t="n">
         <v>152.2379432148117</v>
       </c>
       <c r="K20" t="n">
-        <v>228.1652132633601</v>
+        <v>228.16521326336</v>
       </c>
       <c r="L20" t="n">
         <v>283.0591228014716</v>
       </c>
       <c r="M20" t="n">
-        <v>314.957813770663</v>
+        <v>314.9578137706629</v>
       </c>
       <c r="N20" t="n">
         <v>320.0541604757288</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9597134644690681</v>
+        <v>0.959713464469068</v>
       </c>
       <c r="H21" t="n">
-        <v>9.268811617372318</v>
+        <v>9.268811617372316</v>
       </c>
       <c r="I21" t="n">
         <v>33.04276621088678</v>
@@ -32572,19 +32572,19 @@
         <v>183.263179017782</v>
       </c>
       <c r="Q21" t="n">
-        <v>122.5065818855604</v>
+        <v>122.5065818855603</v>
       </c>
       <c r="R21" t="n">
-        <v>59.58642018870234</v>
+        <v>59.58642018870233</v>
       </c>
       <c r="S21" t="n">
         <v>17.82625667555483</v>
       </c>
       <c r="T21" t="n">
-        <v>3.868318744943304</v>
+        <v>3.868318744943303</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0631390437150703</v>
+        <v>0.06313904371507029</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8045915297461412</v>
+        <v>0.8045915297461411</v>
       </c>
       <c r="H22" t="n">
-        <v>7.153550146288425</v>
+        <v>7.153550146288424</v>
       </c>
       <c r="I22" t="n">
         <v>24.19626164000215</v>
       </c>
       <c r="J22" t="n">
-        <v>56.88462115305219</v>
+        <v>56.88462115305218</v>
       </c>
       <c r="K22" t="n">
         <v>93.47890681959711</v>
@@ -32648,7 +32648,7 @@
         <v>113.725355495391</v>
       </c>
       <c r="P22" t="n">
-        <v>97.31168828856963</v>
+        <v>97.31168828856961</v>
       </c>
       <c r="Q22" t="n">
         <v>67.37356891356097</v>
@@ -32657,10 +32657,10 @@
         <v>36.1773609647674</v>
       </c>
       <c r="S22" t="n">
-        <v>14.02183602293957</v>
+        <v>14.02183602293956</v>
       </c>
       <c r="T22" t="n">
-        <v>3.437800172551694</v>
+        <v>3.437800172551693</v>
       </c>
       <c r="U22" t="n">
         <v>0.04388681071342593</v>
@@ -32706,19 +32706,19 @@
         <v>18.36971779789027</v>
       </c>
       <c r="I23" t="n">
-        <v>69.15157284542076</v>
+        <v>69.15157284542074</v>
       </c>
       <c r="J23" t="n">
         <v>152.2379432148117</v>
       </c>
       <c r="K23" t="n">
-        <v>228.1652132633601</v>
+        <v>228.16521326336</v>
       </c>
       <c r="L23" t="n">
         <v>283.0591228014716</v>
       </c>
       <c r="M23" t="n">
-        <v>314.957813770663</v>
+        <v>314.9578137706629</v>
       </c>
       <c r="N23" t="n">
         <v>320.0541604757288</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9597134644690681</v>
+        <v>0.959713464469068</v>
       </c>
       <c r="H24" t="n">
-        <v>9.268811617372318</v>
+        <v>9.268811617372316</v>
       </c>
       <c r="I24" t="n">
         <v>33.04276621088678</v>
@@ -32809,19 +32809,19 @@
         <v>183.263179017782</v>
       </c>
       <c r="Q24" t="n">
-        <v>122.5065818855604</v>
+        <v>122.5065818855603</v>
       </c>
       <c r="R24" t="n">
-        <v>59.58642018870234</v>
+        <v>59.58642018870233</v>
       </c>
       <c r="S24" t="n">
         <v>17.82625667555483</v>
       </c>
       <c r="T24" t="n">
-        <v>3.868318744943304</v>
+        <v>3.868318744943303</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0631390437150703</v>
+        <v>0.06313904371507029</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8045915297461412</v>
+        <v>0.8045915297461411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.153550146288425</v>
+        <v>7.153550146288424</v>
       </c>
       <c r="I25" t="n">
         <v>24.19626164000215</v>
       </c>
       <c r="J25" t="n">
-        <v>56.88462115305219</v>
+        <v>56.88462115305218</v>
       </c>
       <c r="K25" t="n">
         <v>93.47890681959711</v>
@@ -32885,7 +32885,7 @@
         <v>113.725355495391</v>
       </c>
       <c r="P25" t="n">
-        <v>97.31168828856963</v>
+        <v>97.31168828856961</v>
       </c>
       <c r="Q25" t="n">
         <v>67.37356891356097</v>
@@ -32894,10 +32894,10 @@
         <v>36.1773609647674</v>
       </c>
       <c r="S25" t="n">
-        <v>14.02183602293957</v>
+        <v>14.02183602293956</v>
       </c>
       <c r="T25" t="n">
-        <v>3.437800172551694</v>
+        <v>3.437800172551693</v>
       </c>
       <c r="U25" t="n">
         <v>0.04388681071342593</v>
@@ -32943,19 +32943,19 @@
         <v>18.36971779789027</v>
       </c>
       <c r="I26" t="n">
-        <v>69.15157284542076</v>
+        <v>69.15157284542074</v>
       </c>
       <c r="J26" t="n">
         <v>152.2379432148117</v>
       </c>
       <c r="K26" t="n">
-        <v>228.1652132633601</v>
+        <v>228.16521326336</v>
       </c>
       <c r="L26" t="n">
         <v>283.0591228014716</v>
       </c>
       <c r="M26" t="n">
-        <v>314.957813770663</v>
+        <v>314.9578137706629</v>
       </c>
       <c r="N26" t="n">
         <v>320.0541604757288</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9597134644690681</v>
+        <v>0.959713464469068</v>
       </c>
       <c r="H27" t="n">
-        <v>9.268811617372318</v>
+        <v>9.268811617372316</v>
       </c>
       <c r="I27" t="n">
         <v>33.04276621088678</v>
@@ -33046,19 +33046,19 @@
         <v>183.263179017782</v>
       </c>
       <c r="Q27" t="n">
-        <v>122.5065818855604</v>
+        <v>122.5065818855603</v>
       </c>
       <c r="R27" t="n">
-        <v>59.58642018870234</v>
+        <v>59.58642018870233</v>
       </c>
       <c r="S27" t="n">
         <v>17.82625667555483</v>
       </c>
       <c r="T27" t="n">
-        <v>3.868318744943304</v>
+        <v>3.868318744943303</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0631390437150703</v>
+        <v>0.06313904371507029</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8045915297461412</v>
+        <v>0.8045915297461411</v>
       </c>
       <c r="H28" t="n">
-        <v>7.153550146288425</v>
+        <v>7.153550146288424</v>
       </c>
       <c r="I28" t="n">
         <v>24.19626164000215</v>
       </c>
       <c r="J28" t="n">
-        <v>56.88462115305219</v>
+        <v>56.88462115305218</v>
       </c>
       <c r="K28" t="n">
         <v>93.47890681959711</v>
@@ -33122,7 +33122,7 @@
         <v>113.725355495391</v>
       </c>
       <c r="P28" t="n">
-        <v>97.31168828856963</v>
+        <v>97.31168828856961</v>
       </c>
       <c r="Q28" t="n">
         <v>67.37356891356097</v>
@@ -33131,10 +33131,10 @@
         <v>36.1773609647674</v>
       </c>
       <c r="S28" t="n">
-        <v>14.02183602293957</v>
+        <v>14.02183602293956</v>
       </c>
       <c r="T28" t="n">
-        <v>3.437800172551694</v>
+        <v>3.437800172551693</v>
       </c>
       <c r="U28" t="n">
         <v>0.04388681071342593</v>
@@ -33180,19 +33180,19 @@
         <v>18.36971779789027</v>
       </c>
       <c r="I29" t="n">
-        <v>69.15157284542076</v>
+        <v>69.15157284542074</v>
       </c>
       <c r="J29" t="n">
         <v>152.2379432148117</v>
       </c>
       <c r="K29" t="n">
-        <v>228.1652132633601</v>
+        <v>228.16521326336</v>
       </c>
       <c r="L29" t="n">
         <v>283.0591228014716</v>
       </c>
       <c r="M29" t="n">
-        <v>314.957813770663</v>
+        <v>314.9578137706629</v>
       </c>
       <c r="N29" t="n">
         <v>320.0541604757288</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9597134644690681</v>
+        <v>0.959713464469068</v>
       </c>
       <c r="H30" t="n">
-        <v>9.268811617372318</v>
+        <v>9.268811617372316</v>
       </c>
       <c r="I30" t="n">
         <v>33.04276621088678</v>
@@ -33283,19 +33283,19 @@
         <v>183.263179017782</v>
       </c>
       <c r="Q30" t="n">
-        <v>122.5065818855604</v>
+        <v>122.5065818855603</v>
       </c>
       <c r="R30" t="n">
-        <v>59.58642018870234</v>
+        <v>59.58642018870233</v>
       </c>
       <c r="S30" t="n">
         <v>17.82625667555483</v>
       </c>
       <c r="T30" t="n">
-        <v>3.868318744943304</v>
+        <v>3.868318744943303</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0631390437150703</v>
+        <v>0.06313904371507029</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8045915297461412</v>
+        <v>0.8045915297461411</v>
       </c>
       <c r="H31" t="n">
-        <v>7.153550146288425</v>
+        <v>7.153550146288424</v>
       </c>
       <c r="I31" t="n">
         <v>24.19626164000215</v>
       </c>
       <c r="J31" t="n">
-        <v>56.88462115305219</v>
+        <v>56.88462115305218</v>
       </c>
       <c r="K31" t="n">
         <v>93.47890681959711</v>
@@ -33359,7 +33359,7 @@
         <v>113.725355495391</v>
       </c>
       <c r="P31" t="n">
-        <v>97.31168828856963</v>
+        <v>97.31168828856961</v>
       </c>
       <c r="Q31" t="n">
         <v>67.37356891356097</v>
@@ -33368,10 +33368,10 @@
         <v>36.1773609647674</v>
       </c>
       <c r="S31" t="n">
-        <v>14.02183602293957</v>
+        <v>14.02183602293956</v>
       </c>
       <c r="T31" t="n">
-        <v>3.437800172551694</v>
+        <v>3.437800172551693</v>
       </c>
       <c r="U31" t="n">
         <v>0.04388681071342593</v>
@@ -33417,19 +33417,19 @@
         <v>18.36971779789027</v>
       </c>
       <c r="I32" t="n">
-        <v>69.15157284542076</v>
+        <v>69.15157284542074</v>
       </c>
       <c r="J32" t="n">
         <v>152.2379432148117</v>
       </c>
       <c r="K32" t="n">
-        <v>228.1652132633601</v>
+        <v>228.16521326336</v>
       </c>
       <c r="L32" t="n">
         <v>283.0591228014716</v>
       </c>
       <c r="M32" t="n">
-        <v>314.957813770663</v>
+        <v>314.9578137706629</v>
       </c>
       <c r="N32" t="n">
         <v>320.0541604757288</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9597134644690681</v>
+        <v>0.959713464469068</v>
       </c>
       <c r="H33" t="n">
-        <v>9.268811617372318</v>
+        <v>9.268811617372316</v>
       </c>
       <c r="I33" t="n">
         <v>33.04276621088678</v>
@@ -33520,19 +33520,19 @@
         <v>183.263179017782</v>
       </c>
       <c r="Q33" t="n">
-        <v>122.5065818855604</v>
+        <v>122.5065818855603</v>
       </c>
       <c r="R33" t="n">
-        <v>59.58642018870234</v>
+        <v>59.58642018870233</v>
       </c>
       <c r="S33" t="n">
         <v>17.82625667555483</v>
       </c>
       <c r="T33" t="n">
-        <v>3.868318744943304</v>
+        <v>3.868318744943303</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0631390437150703</v>
+        <v>0.06313904371507029</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8045915297461412</v>
+        <v>0.8045915297461411</v>
       </c>
       <c r="H34" t="n">
-        <v>7.153550146288425</v>
+        <v>7.153550146288424</v>
       </c>
       <c r="I34" t="n">
         <v>24.19626164000215</v>
       </c>
       <c r="J34" t="n">
-        <v>56.88462115305219</v>
+        <v>56.88462115305218</v>
       </c>
       <c r="K34" t="n">
         <v>93.47890681959711</v>
@@ -33596,7 +33596,7 @@
         <v>113.725355495391</v>
       </c>
       <c r="P34" t="n">
-        <v>97.31168828856963</v>
+        <v>97.31168828856961</v>
       </c>
       <c r="Q34" t="n">
         <v>67.37356891356097</v>
@@ -33605,10 +33605,10 @@
         <v>36.1773609647674</v>
       </c>
       <c r="S34" t="n">
-        <v>14.02183602293957</v>
+        <v>14.02183602293956</v>
       </c>
       <c r="T34" t="n">
-        <v>3.437800172551694</v>
+        <v>3.437800172551693</v>
       </c>
       <c r="U34" t="n">
         <v>0.04388681071342593</v>
@@ -33654,19 +33654,19 @@
         <v>18.36971779789027</v>
       </c>
       <c r="I35" t="n">
-        <v>69.15157284542076</v>
+        <v>69.15157284542074</v>
       </c>
       <c r="J35" t="n">
         <v>152.2379432148117</v>
       </c>
       <c r="K35" t="n">
-        <v>228.1652132633601</v>
+        <v>228.16521326336</v>
       </c>
       <c r="L35" t="n">
         <v>283.0591228014716</v>
       </c>
       <c r="M35" t="n">
-        <v>314.957813770663</v>
+        <v>314.9578137706629</v>
       </c>
       <c r="N35" t="n">
         <v>320.0541604757288</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9597134644690681</v>
+        <v>0.959713464469068</v>
       </c>
       <c r="H36" t="n">
-        <v>9.268811617372318</v>
+        <v>9.268811617372316</v>
       </c>
       <c r="I36" t="n">
         <v>33.04276621088678</v>
@@ -33757,19 +33757,19 @@
         <v>183.263179017782</v>
       </c>
       <c r="Q36" t="n">
-        <v>122.5065818855604</v>
+        <v>122.5065818855603</v>
       </c>
       <c r="R36" t="n">
-        <v>59.58642018870234</v>
+        <v>59.58642018870233</v>
       </c>
       <c r="S36" t="n">
         <v>17.82625667555483</v>
       </c>
       <c r="T36" t="n">
-        <v>3.868318744943304</v>
+        <v>3.868318744943303</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0631390437150703</v>
+        <v>0.06313904371507029</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8045915297461412</v>
+        <v>0.8045915297461411</v>
       </c>
       <c r="H37" t="n">
-        <v>7.153550146288425</v>
+        <v>7.153550146288424</v>
       </c>
       <c r="I37" t="n">
         <v>24.19626164000215</v>
       </c>
       <c r="J37" t="n">
-        <v>56.88462115305219</v>
+        <v>56.88462115305218</v>
       </c>
       <c r="K37" t="n">
         <v>93.47890681959711</v>
@@ -33833,7 +33833,7 @@
         <v>113.725355495391</v>
       </c>
       <c r="P37" t="n">
-        <v>97.31168828856963</v>
+        <v>97.31168828856961</v>
       </c>
       <c r="Q37" t="n">
         <v>67.37356891356097</v>
@@ -33842,10 +33842,10 @@
         <v>36.1773609647674</v>
       </c>
       <c r="S37" t="n">
-        <v>14.02183602293957</v>
+        <v>14.02183602293956</v>
       </c>
       <c r="T37" t="n">
-        <v>3.437800172551694</v>
+        <v>3.437800172551693</v>
       </c>
       <c r="U37" t="n">
         <v>0.04388681071342593</v>
@@ -33891,19 +33891,19 @@
         <v>18.36971779789027</v>
       </c>
       <c r="I38" t="n">
-        <v>69.15157284542076</v>
+        <v>69.15157284542074</v>
       </c>
       <c r="J38" t="n">
         <v>152.2379432148117</v>
       </c>
       <c r="K38" t="n">
-        <v>228.1652132633601</v>
+        <v>228.16521326336</v>
       </c>
       <c r="L38" t="n">
         <v>283.0591228014716</v>
       </c>
       <c r="M38" t="n">
-        <v>314.957813770663</v>
+        <v>314.9578137706629</v>
       </c>
       <c r="N38" t="n">
         <v>320.0541604757288</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9597134644690681</v>
+        <v>0.959713464469068</v>
       </c>
       <c r="H39" t="n">
-        <v>9.268811617372318</v>
+        <v>9.268811617372316</v>
       </c>
       <c r="I39" t="n">
         <v>33.04276621088678</v>
@@ -33994,19 +33994,19 @@
         <v>183.263179017782</v>
       </c>
       <c r="Q39" t="n">
-        <v>122.5065818855604</v>
+        <v>122.5065818855603</v>
       </c>
       <c r="R39" t="n">
-        <v>59.58642018870234</v>
+        <v>59.58642018870233</v>
       </c>
       <c r="S39" t="n">
         <v>17.82625667555483</v>
       </c>
       <c r="T39" t="n">
-        <v>3.868318744943304</v>
+        <v>3.868318744943303</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0631390437150703</v>
+        <v>0.06313904371507029</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8045915297461412</v>
+        <v>0.8045915297461411</v>
       </c>
       <c r="H40" t="n">
-        <v>7.153550146288425</v>
+        <v>7.153550146288424</v>
       </c>
       <c r="I40" t="n">
         <v>24.19626164000215</v>
       </c>
       <c r="J40" t="n">
-        <v>56.88462115305219</v>
+        <v>56.88462115305218</v>
       </c>
       <c r="K40" t="n">
         <v>93.47890681959711</v>
@@ -34070,7 +34070,7 @@
         <v>113.725355495391</v>
       </c>
       <c r="P40" t="n">
-        <v>97.31168828856963</v>
+        <v>97.31168828856961</v>
       </c>
       <c r="Q40" t="n">
         <v>67.37356891356097</v>
@@ -34079,10 +34079,10 @@
         <v>36.1773609647674</v>
       </c>
       <c r="S40" t="n">
-        <v>14.02183602293957</v>
+        <v>14.02183602293956</v>
       </c>
       <c r="T40" t="n">
-        <v>3.437800172551694</v>
+        <v>3.437800172551693</v>
       </c>
       <c r="U40" t="n">
         <v>0.04388681071342593</v>
@@ -34128,19 +34128,19 @@
         <v>18.36971779789027</v>
       </c>
       <c r="I41" t="n">
-        <v>69.15157284542076</v>
+        <v>69.15157284542074</v>
       </c>
       <c r="J41" t="n">
         <v>152.2379432148117</v>
       </c>
       <c r="K41" t="n">
-        <v>228.1652132633601</v>
+        <v>228.16521326336</v>
       </c>
       <c r="L41" t="n">
         <v>283.0591228014716</v>
       </c>
       <c r="M41" t="n">
-        <v>314.957813770663</v>
+        <v>314.9578137706629</v>
       </c>
       <c r="N41" t="n">
         <v>320.0541604757288</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9597134644690681</v>
+        <v>0.959713464469068</v>
       </c>
       <c r="H42" t="n">
-        <v>9.268811617372318</v>
+        <v>9.268811617372316</v>
       </c>
       <c r="I42" t="n">
         <v>33.04276621088678</v>
@@ -34231,19 +34231,19 @@
         <v>183.263179017782</v>
       </c>
       <c r="Q42" t="n">
-        <v>122.5065818855604</v>
+        <v>122.5065818855603</v>
       </c>
       <c r="R42" t="n">
-        <v>59.58642018870234</v>
+        <v>59.58642018870233</v>
       </c>
       <c r="S42" t="n">
         <v>17.82625667555483</v>
       </c>
       <c r="T42" t="n">
-        <v>3.868318744943304</v>
+        <v>3.868318744943303</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0631390437150703</v>
+        <v>0.06313904371507029</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8045915297461412</v>
+        <v>0.8045915297461411</v>
       </c>
       <c r="H43" t="n">
-        <v>7.153550146288425</v>
+        <v>7.153550146288424</v>
       </c>
       <c r="I43" t="n">
         <v>24.19626164000215</v>
       </c>
       <c r="J43" t="n">
-        <v>56.88462115305219</v>
+        <v>56.88462115305218</v>
       </c>
       <c r="K43" t="n">
         <v>93.47890681959711</v>
@@ -34307,7 +34307,7 @@
         <v>113.725355495391</v>
       </c>
       <c r="P43" t="n">
-        <v>97.31168828856963</v>
+        <v>97.31168828856961</v>
       </c>
       <c r="Q43" t="n">
         <v>67.37356891356097</v>
@@ -34316,10 +34316,10 @@
         <v>36.1773609647674</v>
       </c>
       <c r="S43" t="n">
-        <v>14.02183602293957</v>
+        <v>14.02183602293956</v>
       </c>
       <c r="T43" t="n">
-        <v>3.437800172551694</v>
+        <v>3.437800172551693</v>
       </c>
       <c r="U43" t="n">
         <v>0.04388681071342593</v>
@@ -34365,19 +34365,19 @@
         <v>18.36971779789027</v>
       </c>
       <c r="I44" t="n">
-        <v>69.15157284542076</v>
+        <v>69.15157284542074</v>
       </c>
       <c r="J44" t="n">
         <v>152.2379432148117</v>
       </c>
       <c r="K44" t="n">
-        <v>228.1652132633601</v>
+        <v>228.16521326336</v>
       </c>
       <c r="L44" t="n">
         <v>283.0591228014716</v>
       </c>
       <c r="M44" t="n">
-        <v>314.957813770663</v>
+        <v>314.9578137706629</v>
       </c>
       <c r="N44" t="n">
         <v>320.0541604757288</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9597134644690681</v>
+        <v>0.959713464469068</v>
       </c>
       <c r="H45" t="n">
-        <v>9.268811617372318</v>
+        <v>9.268811617372316</v>
       </c>
       <c r="I45" t="n">
         <v>33.04276621088678</v>
@@ -34468,19 +34468,19 @@
         <v>183.263179017782</v>
       </c>
       <c r="Q45" t="n">
-        <v>122.5065818855604</v>
+        <v>122.5065818855603</v>
       </c>
       <c r="R45" t="n">
-        <v>59.58642018870234</v>
+        <v>59.58642018870233</v>
       </c>
       <c r="S45" t="n">
         <v>17.82625667555483</v>
       </c>
       <c r="T45" t="n">
-        <v>3.868318744943304</v>
+        <v>3.868318744943303</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0631390437150703</v>
+        <v>0.06313904371507029</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8045915297461412</v>
+        <v>0.8045915297461411</v>
       </c>
       <c r="H46" t="n">
-        <v>7.153550146288425</v>
+        <v>7.153550146288424</v>
       </c>
       <c r="I46" t="n">
         <v>24.19626164000215</v>
       </c>
       <c r="J46" t="n">
-        <v>56.88462115305219</v>
+        <v>56.88462115305218</v>
       </c>
       <c r="K46" t="n">
         <v>93.47890681959711</v>
@@ -34544,7 +34544,7 @@
         <v>113.725355495391</v>
       </c>
       <c r="P46" t="n">
-        <v>97.31168828856963</v>
+        <v>97.31168828856961</v>
       </c>
       <c r="Q46" t="n">
         <v>67.37356891356097</v>
@@ -34553,10 +34553,10 @@
         <v>36.1773609647674</v>
       </c>
       <c r="S46" t="n">
-        <v>14.02183602293957</v>
+        <v>14.02183602293956</v>
       </c>
       <c r="T46" t="n">
-        <v>3.437800172551694</v>
+        <v>3.437800172551693</v>
       </c>
       <c r="U46" t="n">
         <v>0.04388681071342593</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>9.031127956876844</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>9.031127956876844</v>
+        <v>8.666233898013131</v>
       </c>
       <c r="O8" t="n">
-        <v>8.666233898013131</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>9.031127956876844</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.666233898013129</v>
+      </c>
+      <c r="M9" t="n">
         <v>9.031127956876844</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>8.666233898013129</v>
-      </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.031127956876844</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>9.031127956876844</v>
@@ -35333,25 +35333,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>9.031127956876844</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>9.031127956876844</v>
+        <v>5.209469887860651</v>
       </c>
       <c r="O10" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="P10" t="n">
-        <v>8.666233898013131</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>298.3488249409007</v>
       </c>
       <c r="K11" t="n">
-        <v>85.10681008412271</v>
+        <v>310.2359712441942</v>
       </c>
       <c r="L11" t="n">
-        <v>354.9401142310514</v>
+        <v>129.8109530709799</v>
       </c>
       <c r="M11" t="n">
         <v>165.2327621729357</v>
       </c>
       <c r="N11" t="n">
-        <v>170.9356691379448</v>
+        <v>170.9356691379447</v>
       </c>
       <c r="O11" t="n">
         <v>152.6542306456496</v>
       </c>
       <c r="P11" t="n">
-        <v>568.5542417022322</v>
+        <v>568.554241702232</v>
       </c>
       <c r="Q11" t="n">
         <v>380.4119779029838</v>
       </c>
       <c r="R11" t="n">
-        <v>75.06044743748187</v>
+        <v>75.06044743748186</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>8.227418711088575</v>
+        <v>204.9294338421263</v>
       </c>
       <c r="K12" t="n">
         <v>477.9415125701388</v>
       </c>
       <c r="L12" t="n">
-        <v>118.3195437507187</v>
+        <v>568.554241702232</v>
       </c>
       <c r="M12" t="n">
-        <v>150.7823816453287</v>
+        <v>208.6064787252787</v>
       </c>
       <c r="N12" t="n">
-        <v>327.3473094439175</v>
+        <v>164.2333640298301</v>
       </c>
       <c r="O12" t="n">
-        <v>568.5542417022322</v>
+        <v>135.6526880718722</v>
       </c>
       <c r="P12" t="n">
-        <v>568.5542417022322</v>
+        <v>96.17981419846731</v>
       </c>
       <c r="Q12" t="n">
-        <v>31.51842872964636</v>
+        <v>359.2389975975709</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.90854751778623</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>26.81013368089312</v>
+        <v>26.81013368089311</v>
       </c>
       <c r="K13" t="n">
         <v>176.1405645064071</v>
@@ -35582,7 +35582,7 @@
         <v>308.1644818314752</v>
       </c>
       <c r="O13" t="n">
-        <v>278.0736050324699</v>
+        <v>278.0736050324698</v>
       </c>
       <c r="P13" t="n">
         <v>218.3987244265278</v>
@@ -35649,28 +35649,28 @@
         <v>298.3488249409007</v>
       </c>
       <c r="K14" t="n">
-        <v>85.10681008412271</v>
+        <v>568.5542417022322</v>
       </c>
       <c r="L14" t="n">
-        <v>493.3015490119957</v>
+        <v>129.8109530709799</v>
       </c>
       <c r="M14" t="n">
         <v>165.2327621729357</v>
       </c>
       <c r="N14" t="n">
+        <v>170.9356691379447</v>
+      </c>
+      <c r="O14" t="n">
+        <v>225.5473456170639</v>
+      </c>
+      <c r="P14" t="n">
         <v>568.5542417022322</v>
       </c>
-      <c r="O14" t="n">
-        <v>152.6542306456496</v>
-      </c>
-      <c r="P14" t="n">
-        <v>107.6346817944826</v>
-      </c>
       <c r="Q14" t="n">
-        <v>380.4119779029838</v>
+        <v>49.20059247353254</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>75.06044743748186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>8.227418711088575</v>
+        <v>204.9294338421263</v>
       </c>
       <c r="K15" t="n">
-        <v>313.3348891163017</v>
+        <v>477.9415125701388</v>
       </c>
       <c r="L15" t="n">
-        <v>118.3195437507187</v>
+        <v>568.5542417022322</v>
       </c>
       <c r="M15" t="n">
         <v>150.7823816453287</v>
       </c>
       <c r="N15" t="n">
-        <v>164.2333640298301</v>
+        <v>222.0574611097804</v>
       </c>
       <c r="O15" t="n">
-        <v>568.5542417022322</v>
+        <v>135.6526880718722</v>
       </c>
       <c r="P15" t="n">
-        <v>568.5542417022322</v>
+        <v>96.17981419846731</v>
       </c>
       <c r="Q15" t="n">
-        <v>359.238997597571</v>
+        <v>359.2389975975709</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.90854751778623</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>26.81013368089312</v>
+        <v>26.81013368089311</v>
       </c>
       <c r="K16" t="n">
         <v>176.1405645064071</v>
@@ -35819,7 +35819,7 @@
         <v>308.1644818314752</v>
       </c>
       <c r="O16" t="n">
-        <v>278.0736050324699</v>
+        <v>278.0736050324698</v>
       </c>
       <c r="P16" t="n">
         <v>218.3987244265278</v>
@@ -35886,7 +35886,7 @@
         <v>298.3488249409007</v>
       </c>
       <c r="K17" t="n">
-        <v>568.5542417022322</v>
+        <v>310.2359712441948</v>
       </c>
       <c r="L17" t="n">
         <v>129.8109530709799</v>
@@ -35895,19 +35895,19 @@
         <v>165.2327621729357</v>
       </c>
       <c r="N17" t="n">
+        <v>170.9356691379447</v>
+      </c>
+      <c r="O17" t="n">
+        <v>152.6542306456496</v>
+      </c>
+      <c r="P17" t="n">
         <v>568.5542417022322</v>
       </c>
-      <c r="O17" t="n">
-        <v>363.9087803980073</v>
-      </c>
-      <c r="P17" t="n">
-        <v>107.6346817944826</v>
-      </c>
       <c r="Q17" t="n">
-        <v>49.20059247353257</v>
+        <v>380.4119779029838</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>75.06044743748186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>8.227418711088575</v>
+        <v>204.9294338421263</v>
       </c>
       <c r="K18" t="n">
-        <v>65.37574283051613</v>
+        <v>477.9415125701388</v>
       </c>
       <c r="L18" t="n">
         <v>568.5542417022322</v>
       </c>
       <c r="M18" t="n">
-        <v>568.5542417022322</v>
+        <v>150.7823816453287</v>
       </c>
       <c r="N18" t="n">
-        <v>568.5542417022322</v>
+        <v>164.2333640298301</v>
       </c>
       <c r="O18" t="n">
-        <v>308.3724011611019</v>
+        <v>135.6526880718722</v>
       </c>
       <c r="P18" t="n">
-        <v>96.17981419846731</v>
+        <v>154.0039112784175</v>
       </c>
       <c r="Q18" t="n">
-        <v>31.51842872964636</v>
+        <v>359.2389975975709</v>
       </c>
       <c r="R18" t="n">
-        <v>35.90854751778624</v>
+        <v>35.90854751778623</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>26.81013368089312</v>
+        <v>26.81013368089311</v>
       </c>
       <c r="K19" t="n">
         <v>176.1405645064071</v>
@@ -36056,7 +36056,7 @@
         <v>308.1644818314752</v>
       </c>
       <c r="O19" t="n">
-        <v>278.0736050324699</v>
+        <v>278.0736050324698</v>
       </c>
       <c r="P19" t="n">
         <v>218.3987244265278</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>34.55810527246564</v>
+        <v>298.3488249409007</v>
       </c>
       <c r="K20" t="n">
-        <v>568.554241702232</v>
+        <v>310.2359712441942</v>
       </c>
       <c r="L20" t="n">
         <v>129.8109530709799</v>
@@ -36132,19 +36132,19 @@
         <v>165.2327621729357</v>
       </c>
       <c r="N20" t="n">
-        <v>568.554241702232</v>
+        <v>170.9356691379447</v>
       </c>
       <c r="O20" t="n">
         <v>152.6542306456496</v>
       </c>
       <c r="P20" t="n">
-        <v>251.468565785824</v>
+        <v>568.554241702232</v>
       </c>
       <c r="Q20" t="n">
         <v>380.4119779029838</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>75.06044743748186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>204.9294338421263</v>
+        <v>202.9448731579344</v>
       </c>
       <c r="K21" t="n">
         <v>65.37574283051613</v>
       </c>
       <c r="L21" t="n">
-        <v>118.3195437507187</v>
+        <v>568.554241702232</v>
       </c>
       <c r="M21" t="n">
+        <v>150.7823816453287</v>
+      </c>
+      <c r="N21" t="n">
+        <v>164.2333640298301</v>
+      </c>
+      <c r="O21" t="n">
+        <v>135.6526880718722</v>
+      </c>
+      <c r="P21" t="n">
         <v>568.554241702232</v>
       </c>
-      <c r="N21" t="n">
-        <v>568.554241702232</v>
-      </c>
-      <c r="O21" t="n">
-        <v>561.9050839815777</v>
-      </c>
-      <c r="P21" t="n">
-        <v>96.17981419846731</v>
-      </c>
       <c r="Q21" t="n">
-        <v>31.51842872964636</v>
+        <v>359.2389975975709</v>
       </c>
       <c r="R21" t="n">
-        <v>35.90854751778624</v>
+        <v>35.90854751778623</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>26.81013368089312</v>
+        <v>26.81013368089311</v>
       </c>
       <c r="K22" t="n">
         <v>176.1405645064071</v>
@@ -36293,7 +36293,7 @@
         <v>308.1644818314752</v>
       </c>
       <c r="O22" t="n">
-        <v>278.0736050324699</v>
+        <v>278.0736050324698</v>
       </c>
       <c r="P22" t="n">
         <v>218.3987244265278</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>34.55810527246564</v>
+        <v>298.3488249409007</v>
       </c>
       <c r="K23" t="n">
-        <v>85.10681008412271</v>
+        <v>568.5542417022322</v>
       </c>
       <c r="L23" t="n">
-        <v>278.7103417136522</v>
+        <v>568.5542417022322</v>
       </c>
       <c r="M23" t="n">
-        <v>568.554241702232</v>
+        <v>335.3625958583286</v>
       </c>
       <c r="N23" t="n">
-        <v>568.554241702232</v>
+        <v>170.9356691379447</v>
       </c>
       <c r="O23" t="n">
         <v>152.6542306456496</v>
@@ -36378,10 +36378,10 @@
         <v>107.6346817944826</v>
       </c>
       <c r="Q23" t="n">
-        <v>380.4119779029838</v>
+        <v>49.20059247353254</v>
       </c>
       <c r="R23" t="n">
-        <v>75.06044743748187</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>8.227418711088575</v>
+        <v>204.9294338421263</v>
       </c>
       <c r="K24" t="n">
-        <v>65.37574283051613</v>
+        <v>477.9415125701388</v>
       </c>
       <c r="L24" t="n">
-        <v>568.554241702232</v>
+        <v>118.3195437507187</v>
       </c>
       <c r="M24" t="n">
-        <v>420.8812574833656</v>
+        <v>150.7823816453287</v>
       </c>
       <c r="N24" t="n">
         <v>164.2333640298301</v>
       </c>
       <c r="O24" t="n">
-        <v>568.554241702232</v>
+        <v>171.3370555995712</v>
       </c>
       <c r="P24" t="n">
-        <v>96.17981419846731</v>
+        <v>568.5542417022322</v>
       </c>
       <c r="Q24" t="n">
-        <v>359.238997597571</v>
+        <v>359.2389975975709</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.90854751778623</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>26.81013368089312</v>
+        <v>26.81013368089311</v>
       </c>
       <c r="K25" t="n">
         <v>176.1405645064071</v>
@@ -36530,7 +36530,7 @@
         <v>308.1644818314752</v>
       </c>
       <c r="O25" t="n">
-        <v>278.0736050324699</v>
+        <v>278.0736050324698</v>
       </c>
       <c r="P25" t="n">
         <v>218.3987244265278</v>
@@ -36597,16 +36597,16 @@
         <v>298.3488249409007</v>
       </c>
       <c r="K26" t="n">
-        <v>85.10681008412271</v>
+        <v>85.10681008412269</v>
       </c>
       <c r="L26" t="n">
-        <v>412.5381946095044</v>
+        <v>568.554241702232</v>
       </c>
       <c r="M26" t="n">
+        <v>165.2327621729357</v>
+      </c>
+      <c r="N26" t="n">
         <v>568.554241702232</v>
-      </c>
-      <c r="N26" t="n">
-        <v>170.9356691379448</v>
       </c>
       <c r="O26" t="n">
         <v>152.6542306456496</v>
@@ -36615,10 +36615,10 @@
         <v>107.6346817944826</v>
       </c>
       <c r="Q26" t="n">
-        <v>380.4119779029838</v>
+        <v>230.0988377752653</v>
       </c>
       <c r="R26" t="n">
-        <v>75.06044743748187</v>
+        <v>75.06044743748186</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>8.227418711088575</v>
+        <v>204.9294338421263</v>
       </c>
       <c r="K27" t="n">
-        <v>65.37574283051613</v>
+        <v>477.9415125701388</v>
       </c>
       <c r="L27" t="n">
-        <v>118.3195437507187</v>
+        <v>568.554241702232</v>
       </c>
       <c r="M27" t="n">
-        <v>568.554241702232</v>
+        <v>150.7823816453287</v>
       </c>
       <c r="N27" t="n">
-        <v>286.2326716088507</v>
+        <v>164.2333640298301</v>
       </c>
       <c r="O27" t="n">
-        <v>568.554241702232</v>
+        <v>135.6526880718722</v>
       </c>
       <c r="P27" t="n">
-        <v>568.554241702232</v>
+        <v>154.0039112784173</v>
       </c>
       <c r="Q27" t="n">
-        <v>31.51842872964636</v>
+        <v>359.2389975975709</v>
       </c>
       <c r="R27" t="n">
-        <v>35.90854751778624</v>
+        <v>35.90854751778623</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>26.81013368089312</v>
+        <v>26.81013368089311</v>
       </c>
       <c r="K28" t="n">
         <v>176.1405645064071</v>
@@ -36767,7 +36767,7 @@
         <v>308.1644818314752</v>
       </c>
       <c r="O28" t="n">
-        <v>278.0736050324699</v>
+        <v>278.0736050324698</v>
       </c>
       <c r="P28" t="n">
         <v>218.3987244265278</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>63.34705918605143</v>
+        <v>298.3488249409007</v>
       </c>
       <c r="K29" t="n">
-        <v>85.10681008412271</v>
+        <v>568.5542417022322</v>
       </c>
       <c r="L29" t="n">
         <v>568.5542417022322</v>
@@ -36843,19 +36843,19 @@
         <v>165.2327621729357</v>
       </c>
       <c r="N29" t="n">
-        <v>568.5542417022322</v>
+        <v>341.0655028233378</v>
       </c>
       <c r="O29" t="n">
-        <v>568.5542417022322</v>
+        <v>152.6542306456496</v>
       </c>
       <c r="P29" t="n">
         <v>107.6346817944826</v>
       </c>
       <c r="Q29" t="n">
-        <v>49.20059247353257</v>
+        <v>49.20059247353254</v>
       </c>
       <c r="R29" t="n">
-        <v>75.06044743748187</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>204.9294338421263</v>
       </c>
       <c r="K30" t="n">
-        <v>65.37574283051613</v>
+        <v>477.9415125701388</v>
       </c>
       <c r="L30" t="n">
         <v>118.3195437507187</v>
       </c>
       <c r="M30" t="n">
+        <v>150.7823816453287</v>
+      </c>
+      <c r="N30" t="n">
+        <v>164.2333640298301</v>
+      </c>
+      <c r="O30" t="n">
+        <v>171.3370555995712</v>
+      </c>
+      <c r="P30" t="n">
         <v>568.5542417022322</v>
       </c>
-      <c r="N30" t="n">
-        <v>270.0930626314394</v>
-      </c>
-      <c r="O30" t="n">
-        <v>568.5542417022322</v>
-      </c>
-      <c r="P30" t="n">
-        <v>96.17981419846731</v>
-      </c>
       <c r="Q30" t="n">
-        <v>359.238997597571</v>
+        <v>359.2389975975709</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.90854751778623</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>26.81013368089312</v>
+        <v>26.81013368089311</v>
       </c>
       <c r="K31" t="n">
         <v>176.1405645064071</v>
@@ -37004,7 +37004,7 @@
         <v>308.1644818314752</v>
       </c>
       <c r="O31" t="n">
-        <v>278.0736050324699</v>
+        <v>278.0736050324698</v>
       </c>
       <c r="P31" t="n">
         <v>218.3987244265278</v>
@@ -37071,28 +37071,28 @@
         <v>298.3488249409007</v>
       </c>
       <c r="K32" t="n">
-        <v>85.10681008412271</v>
+        <v>385.2964186816765</v>
       </c>
       <c r="L32" t="n">
         <v>129.8109530709799</v>
       </c>
       <c r="M32" t="n">
+        <v>165.2327621729357</v>
+      </c>
+      <c r="N32" t="n">
+        <v>170.9356691379447</v>
+      </c>
+      <c r="O32" t="n">
+        <v>152.6542306456496</v>
+      </c>
+      <c r="P32" t="n">
         <v>568.5542417022322</v>
       </c>
-      <c r="N32" t="n">
-        <v>568.5542417022322</v>
-      </c>
-      <c r="O32" t="n">
-        <v>368.9742850493386</v>
-      </c>
-      <c r="P32" t="n">
-        <v>107.6346817944826</v>
-      </c>
       <c r="Q32" t="n">
-        <v>49.20059247353257</v>
+        <v>380.4119779029838</v>
       </c>
       <c r="R32" t="n">
-        <v>75.06044743748187</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>8.227418711088575</v>
+        <v>204.9294338421263</v>
       </c>
       <c r="K33" t="n">
-        <v>65.37574283051613</v>
+        <v>102.8640560197292</v>
       </c>
       <c r="L33" t="n">
         <v>568.5542417022322</v>
@@ -37159,7 +37159,7 @@
         <v>150.7823816453287</v>
       </c>
       <c r="N33" t="n">
-        <v>568.5542417022322</v>
+        <v>164.2333640298301</v>
       </c>
       <c r="O33" t="n">
         <v>568.5542417022322</v>
@@ -37168,10 +37168,10 @@
         <v>96.17981419846731</v>
       </c>
       <c r="Q33" t="n">
-        <v>225.0169957632058</v>
+        <v>359.2389975975709</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.90854751778623</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>26.81013368089312</v>
+        <v>26.81013368089311</v>
       </c>
       <c r="K34" t="n">
         <v>176.1405645064071</v>
@@ -37241,7 +37241,7 @@
         <v>308.1644818314752</v>
       </c>
       <c r="O34" t="n">
-        <v>278.0736050324699</v>
+        <v>278.0736050324698</v>
       </c>
       <c r="P34" t="n">
         <v>218.3987244265278</v>
@@ -37308,16 +37308,16 @@
         <v>298.3488249409007</v>
       </c>
       <c r="K35" t="n">
-        <v>85.10681008412271</v>
+        <v>310.2359712441948</v>
       </c>
       <c r="L35" t="n">
-        <v>354.9401142310514</v>
+        <v>129.8109530709799</v>
       </c>
       <c r="M35" t="n">
         <v>165.2327621729357</v>
       </c>
       <c r="N35" t="n">
-        <v>170.9356691379448</v>
+        <v>170.9356691379447</v>
       </c>
       <c r="O35" t="n">
         <v>152.6542306456496</v>
@@ -37329,7 +37329,7 @@
         <v>380.4119779029838</v>
       </c>
       <c r="R35" t="n">
-        <v>75.06044743748187</v>
+        <v>75.06044743748186</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>8.227418711088575</v>
+        <v>204.9294338421263</v>
       </c>
       <c r="K36" t="n">
-        <v>65.37574283051613</v>
+        <v>477.9415125701388</v>
       </c>
       <c r="L36" t="n">
         <v>568.5542417022322</v>
       </c>
       <c r="M36" t="n">
-        <v>568.5542417022322</v>
+        <v>150.7823816453287</v>
       </c>
       <c r="N36" t="n">
         <v>164.2333640298301</v>
       </c>
       <c r="O36" t="n">
-        <v>135.6526880718723</v>
+        <v>135.6526880718722</v>
       </c>
       <c r="P36" t="n">
-        <v>568.5542417022322</v>
+        <v>481.7244801463421</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1845919875132</v>
+        <v>31.51842872964635</v>
       </c>
       <c r="R36" t="n">
-        <v>35.90854751778624</v>
+        <v>35.90854751778623</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>26.81013368089312</v>
+        <v>26.81013368089311</v>
       </c>
       <c r="K37" t="n">
         <v>176.1405645064071</v>
@@ -37478,7 +37478,7 @@
         <v>308.1644818314752</v>
       </c>
       <c r="O37" t="n">
-        <v>278.0736050324699</v>
+        <v>278.0736050324698</v>
       </c>
       <c r="P37" t="n">
         <v>218.3987244265278</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>34.55810527246564</v>
+        <v>298.3488249409007</v>
       </c>
       <c r="K38" t="n">
-        <v>568.5542417022322</v>
+        <v>85.10681008412269</v>
       </c>
       <c r="L38" t="n">
-        <v>466.4947877108287</v>
+        <v>129.8109530709799</v>
       </c>
       <c r="M38" t="n">
         <v>165.2327621729357</v>
       </c>
       <c r="N38" t="n">
-        <v>170.9356691379448</v>
+        <v>170.9356691379447</v>
       </c>
       <c r="O38" t="n">
-        <v>152.6542306456496</v>
+        <v>377.7833918057217</v>
       </c>
       <c r="P38" t="n">
         <v>568.5542417022322</v>
       </c>
       <c r="Q38" t="n">
-        <v>49.20059247353257</v>
+        <v>380.4119779029838</v>
       </c>
       <c r="R38" t="n">
-        <v>75.06044743748187</v>
+        <v>75.06044743748186</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>8.227418711088575</v>
+        <v>204.9294338421263</v>
       </c>
       <c r="K39" t="n">
-        <v>65.37574283051613</v>
+        <v>477.9415125701388</v>
       </c>
       <c r="L39" t="n">
-        <v>568.5542417022322</v>
+        <v>118.3195437507187</v>
       </c>
       <c r="M39" t="n">
-        <v>268.8995272876971</v>
+        <v>150.7823816453287</v>
       </c>
       <c r="N39" t="n">
-        <v>568.5542417022322</v>
+        <v>164.2333640298301</v>
       </c>
       <c r="O39" t="n">
-        <v>135.6526880718723</v>
+        <v>171.3370555995712</v>
       </c>
       <c r="P39" t="n">
         <v>568.5542417022322</v>
       </c>
       <c r="Q39" t="n">
-        <v>31.51842872964636</v>
+        <v>359.2389975975709</v>
       </c>
       <c r="R39" t="n">
-        <v>35.90854751778624</v>
+        <v>35.90854751778623</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>26.81013368089312</v>
+        <v>26.81013368089311</v>
       </c>
       <c r="K40" t="n">
         <v>176.1405645064071</v>
@@ -37715,7 +37715,7 @@
         <v>308.1644818314752</v>
       </c>
       <c r="O40" t="n">
-        <v>278.0736050324699</v>
+        <v>278.0736050324698</v>
       </c>
       <c r="P40" t="n">
         <v>218.3987244265278</v>
@@ -37782,7 +37782,7 @@
         <v>298.3488249409007</v>
       </c>
       <c r="K41" t="n">
-        <v>85.10681008412271</v>
+        <v>310.2359712441948</v>
       </c>
       <c r="L41" t="n">
         <v>129.8109530709799</v>
@@ -37791,19 +37791,19 @@
         <v>165.2327621729357</v>
       </c>
       <c r="N41" t="n">
-        <v>396.0648302980163</v>
+        <v>170.9356691379447</v>
       </c>
       <c r="O41" t="n">
         <v>152.6542306456496</v>
       </c>
       <c r="P41" t="n">
-        <v>568.5542417022322</v>
+        <v>568.5542417022323</v>
       </c>
       <c r="Q41" t="n">
         <v>380.4119779029838</v>
       </c>
       <c r="R41" t="n">
-        <v>75.06044743748187</v>
+        <v>75.06044743748186</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>8.227418711088575</v>
+        <v>204.9294338421263</v>
       </c>
       <c r="K42" t="n">
-        <v>255.4286002408995</v>
+        <v>477.9415125701388</v>
       </c>
       <c r="L42" t="n">
-        <v>118.3195437507187</v>
+        <v>154.0039112784181</v>
       </c>
       <c r="M42" t="n">
-        <v>568.5542417022322</v>
+        <v>150.7823816453287</v>
       </c>
       <c r="N42" t="n">
-        <v>568.5542417022322</v>
+        <v>164.2333640298301</v>
       </c>
       <c r="O42" t="n">
-        <v>568.5542417022322</v>
+        <v>135.6526880718722</v>
       </c>
       <c r="P42" t="n">
-        <v>96.17981419846731</v>
+        <v>568.5542417022323</v>
       </c>
       <c r="Q42" t="n">
-        <v>31.51842872964636</v>
+        <v>359.2389975975709</v>
       </c>
       <c r="R42" t="n">
-        <v>35.90854751778624</v>
+        <v>35.90854751778623</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>26.81013368089312</v>
+        <v>26.81013368089311</v>
       </c>
       <c r="K43" t="n">
         <v>176.1405645064071</v>
@@ -37952,7 +37952,7 @@
         <v>308.1644818314752</v>
       </c>
       <c r="O43" t="n">
-        <v>278.0736050324699</v>
+        <v>278.0736050324698</v>
       </c>
       <c r="P43" t="n">
         <v>218.3987244265278</v>
@@ -38019,28 +38019,28 @@
         <v>298.3488249409007</v>
       </c>
       <c r="K44" t="n">
-        <v>85.10681008412271</v>
+        <v>310.2359712441948</v>
       </c>
       <c r="L44" t="n">
-        <v>568.5542417022322</v>
+        <v>129.8109530709799</v>
       </c>
       <c r="M44" t="n">
         <v>165.2327621729357</v>
       </c>
       <c r="N44" t="n">
-        <v>418.2411015745137</v>
+        <v>170.9356691379447</v>
       </c>
       <c r="O44" t="n">
         <v>152.6542306456496</v>
       </c>
       <c r="P44" t="n">
-        <v>107.6346817944826</v>
+        <v>568.5542417022322</v>
       </c>
       <c r="Q44" t="n">
         <v>380.4119779029838</v>
       </c>
       <c r="R44" t="n">
-        <v>75.06044743748187</v>
+        <v>75.06044743748186</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>204.9294338421263</v>
       </c>
       <c r="K45" t="n">
-        <v>65.37574283051613</v>
+        <v>477.9415125701388</v>
       </c>
       <c r="L45" t="n">
-        <v>133.6681273876802</v>
+        <v>118.3195437507187</v>
       </c>
       <c r="M45" t="n">
         <v>150.7823816453287</v>
@@ -38110,16 +38110,16 @@
         <v>164.2333640298301</v>
       </c>
       <c r="O45" t="n">
-        <v>568.5542417022322</v>
+        <v>171.3370555995712</v>
       </c>
       <c r="P45" t="n">
         <v>568.5542417022322</v>
       </c>
       <c r="Q45" t="n">
-        <v>359.238997597571</v>
+        <v>359.2389975975709</v>
       </c>
       <c r="R45" t="n">
-        <v>35.90854751778624</v>
+        <v>35.90854751778623</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>26.81013368089312</v>
+        <v>26.81013368089311</v>
       </c>
       <c r="K46" t="n">
         <v>176.1405645064071</v>
@@ -38189,7 +38189,7 @@
         <v>308.1644818314752</v>
       </c>
       <c r="O46" t="n">
-        <v>278.0736050324699</v>
+        <v>278.0736050324698</v>
       </c>
       <c r="P46" t="n">
         <v>218.3987244265278</v>
